--- a/Lizinq Muqavile/bin/Debug/2.xlsx
+++ b/Lizinq Muqavile/bin/Debug/2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="licschkre" sheetId="1" r:id="rId1"/>
@@ -483,987 +483,990 @@
     <t>25-09-2012</t>
   </si>
   <si>
+    <t>19-02-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1110</t>
+  </si>
+  <si>
+    <t>TİCARƏT</t>
+  </si>
+  <si>
+    <t>'L-138/09</t>
+  </si>
+  <si>
+    <t>'PAİDƏ-ə verilmə tarixi 05.03.2014 *Qətnamə: olmalıdır. Lakin bizdə məhkəmə sənədlərinə dair heçbir sənəd yoxdur. İş hansı mərhələdədirsə bilinmir.</t>
+  </si>
+  <si>
+    <t>MİRZƏYEV ŞAİQ SOMAR OĞLU</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SAHİBKARLIQ FƏALİYYƏTİ İLƏ MƏŞĞUL OLAN REZİDENT FİZİKİ ŞƏXSLƏR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000007000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000007000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000007000AZN</t>
+  </si>
+  <si>
+    <t>05-12-2013</t>
+  </si>
+  <si>
+    <t>05-08-2016</t>
+  </si>
+  <si>
+    <t>13-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   960</t>
+  </si>
+  <si>
+    <t>ÖZÜBOŞALDAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2535</t>
+  </si>
+  <si>
+    <t>'01/14-01/13-106/08</t>
+  </si>
+  <si>
+    <t>'BURAYEV XƏLİL</t>
+  </si>
+  <si>
+    <t>'PAİD-ə təhvil verilmişdir: 09.02.2016 - MIID-ə təhvil verilmişdir: 11.07.2016 - Qətnamə: Şərur rayon məhkəməsinin 20.07.2018-ci il tarixli 2(110)-380/2018 saylı qətnaməsi. (Tam təmin olunub. Surəti bizdə var.) Qət edilib: 15476 AZN İş icradadır. (Lizinq obyekti müştəridədir.!!!)</t>
+  </si>
+  <si>
+    <t>"KƏNAN SN" MMC</t>
+  </si>
+  <si>
+    <t>NƏQLİYYAT VƏ RABİTƏ SEKTORUNDA FƏALİYYƏT GÖSTƏRƏN ÖZƏL MÜƏSSİSƏLƏR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000008000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000008000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000008000AZN</t>
+  </si>
+  <si>
+    <t>15-03-2010</t>
+  </si>
+  <si>
+    <t>15-03-2012</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   720</t>
+  </si>
+  <si>
+    <t>'L-158</t>
+  </si>
+  <si>
+    <t>"M DİZAYN" MMC</t>
+  </si>
+  <si>
+    <t>DİGƏR SEKTORLARDA FƏALİYYƏT GÖSTƏRƏN ÖZƏL MÜƏSSİSƏLƏR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000009000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000009000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000009000AZN</t>
+  </si>
+  <si>
+    <t>24-03-2009</t>
+  </si>
+  <si>
+    <t>01-12-2017</t>
+  </si>
+  <si>
+    <t>24-02-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24</t>
+  </si>
+  <si>
+    <t>DIGƏR</t>
+  </si>
+  <si>
+    <t>'L-079</t>
+  </si>
+  <si>
+    <t>"MRX KRANE" MMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000010000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000010000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000010000AZN</t>
+  </si>
+  <si>
+    <t>09-01-2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     5</t>
+  </si>
+  <si>
+    <t>'L-184</t>
+  </si>
+  <si>
+    <t>SUMQAYIT</t>
+  </si>
+  <si>
+    <t>"ORİENT WİNGS" MMC</t>
+  </si>
+  <si>
+    <t>DAŞINMAZ ƏMLAKIN ALINMASI VƏ YA TİKİLMƏSİ ÜÇÜN VƏ BU ƏMLAKIN GİROV ÖZ H/Ş XA/VA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000011000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000011000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000011000AZN</t>
+  </si>
+  <si>
+    <t>03-09-2007</t>
+  </si>
+  <si>
+    <t>01-04-2014</t>
+  </si>
+  <si>
+    <t>03-09-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03</t>
+  </si>
+  <si>
+    <t>'L-046/07</t>
+  </si>
+  <si>
+    <t>'*PAİD-ə verilmişdir: 25.07.2012 - *MIID-ə təhvil verilmişdir : Təhvil-təslim yoxdur. *İddia: Əsasdan 30244.00 AZN, Faizdən 2772.37 AZN, Dəbbədən 7408.02 AZN tələb edilmişdir.. *Qətnamə: Sumqayıt şəhər məhkəməsinin 06.12.2007-ci il tarixli 2-2516/2007 (Tam təmin edilib. Surəti bizdə var.) *İş icradadır.</t>
+  </si>
+  <si>
+    <t>"UĞURLU" MMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000012000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000012000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000012000AZN</t>
+  </si>
+  <si>
+    <t>02-04-2011</t>
+  </si>
+  <si>
+    <t>02-11-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1650</t>
+  </si>
+  <si>
+    <t>'L-182/10</t>
+  </si>
+  <si>
+    <t>'*MIID-ə təhvil verilmişdir: 26.12.2012 - 22.10.2014 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş hüquqdadır. *Avtobuslar barədə məlumat yoxdur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1638</t>
+  </si>
+  <si>
+    <t>'L-192/11</t>
+  </si>
+  <si>
+    <t>20-09-2011</t>
+  </si>
+  <si>
+    <t>20-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1410</t>
+  </si>
+  <si>
+    <t>'L-201/11</t>
+  </si>
+  <si>
+    <t>"XƏZƏR YKT" MMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000013000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000013000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000013000AZN</t>
+  </si>
+  <si>
+    <t>15-10-2010</t>
+  </si>
+  <si>
+    <t>15-09-2013</t>
+  </si>
+  <si>
+    <t>16-01-2020</t>
+  </si>
+  <si>
+    <t>'L-167/10</t>
+  </si>
+  <si>
+    <t>'MİİD-ə təhvil verilmişdir 18.01.2013- Qətnamə: AR 2 saylı Bakı İnzibati-İqtisad məh-nin 2(82)-535/2015 saylı 14.04.2015-ci il tarixli icra sənədi var bizdə  yoxdu. 23.11.2015 N 7796 icra sənədinin surəti bizdə var  14.05.2018-ci il tarixind' AR 2 saylı Bakı İnzibati-İqtisad məhkəm-nin 2(82)-1488/2015 saylı qərardadına əsasən müflis elan edilmişdir. *İşin hansı mərhələdə olmasi bilinmir. *Lizinq obyekti 5 əd "HOWO" markalı yük maşınlarının satışı təmin edilmişdir. Butun məbləğ mustərinin borcundan silinib.</t>
+  </si>
+  <si>
+    <t>L-077 BAĞIROV İLQAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000014000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000014000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000014000AZN</t>
+  </si>
+  <si>
+    <t>28-01-2009</t>
+  </si>
+  <si>
+    <t>23-05-2014</t>
+  </si>
+  <si>
+    <t>28-08-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   930</t>
+  </si>
+  <si>
+    <t>'L-077</t>
+  </si>
+  <si>
+    <t>BƏDƏLOVA ZƏRQƏLƏM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000015000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000015000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000015000AZN</t>
+  </si>
+  <si>
+    <t>09-04-2008</t>
+  </si>
+  <si>
+    <t>09-04-2009</t>
+  </si>
+  <si>
+    <t>08-05-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 09</t>
+  </si>
+  <si>
+    <t>'L-01/08-073/07</t>
+  </si>
+  <si>
+    <t>'*MIID-ə təhvil verilmişdir: 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş hüquqdadır. *Lizinq obyekti olan "Doosan SL 225 LC-V" markal? d.n.n.-ı Az 10 E 447 olan t?rt?ll? ekskavator mustərinin istifadəsindədir. Ənvər adlı şəxslə (050 200 17 57; 012 596 17 98) əlaqə saxlanılıb. (Əsgərov Vilayət qovluğu ilə əlaqəlidir.)</t>
+  </si>
+  <si>
+    <t>CABBAROV FƏRHAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000016000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000016000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000016000AZN</t>
+  </si>
+  <si>
+    <t>09-10-2011</t>
+  </si>
+  <si>
+    <t>11-11-2014</t>
+  </si>
+  <si>
+    <t>09-01-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   450</t>
+  </si>
+  <si>
+    <t>'L-202</t>
+  </si>
+  <si>
+    <t>ƏSGƏROV HİDAYƏT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000017000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000017000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000017000AZN</t>
+  </si>
+  <si>
+    <t>09-09-2011</t>
+  </si>
+  <si>
+    <t>21-05-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    30</t>
+  </si>
+  <si>
+    <t>'L-187</t>
+  </si>
+  <si>
+    <t>'MIID-ə təhvil verilmişdir : 09.02.2016 İddia: Əsasdan 199200.00 AZN, Faizdən 1327.34 AZN tələb edilmişdir.. Qətnamə: AR Ali Məhkəməsinin Mulki Kollegiyasının Qərarı 13.12.2019-cu il tarixli 2(102)-7681/2019 (Tam təmin edilib. Surəti bizdə var.) Qət edildi : əsasdan 199200.00 AZN, Faizdən 11327.34 AZN</t>
+  </si>
+  <si>
+    <t>FƏTƏLİYEV FUAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000018000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000018000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000018000AZN</t>
+  </si>
+  <si>
+    <t>07-08-2009</t>
+  </si>
+  <si>
+    <t>07-12-2014</t>
+  </si>
+  <si>
+    <t>29-07-2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1920</t>
+  </si>
+  <si>
+    <t>'L-107</t>
+  </si>
+  <si>
+    <t>'MIID-ə təhvil verilmişdir: 02.11.2009-12.11.2010 02.05.2011- İddia: əsasdan 64270,99, faizdən 60473,96, CƏMİ 124744,95AZN. Qətnamə:AR Bakı Apellyasiya məhkəməsinin 12 sentyabr 2012-ci il tarixli iş N: 2-1(103)-349/2012. (Qismən təmin edilmişdir:)Qət edildi :  CƏMİ 7349AZN və 20 dövlət rüsumu tutulsun. Qətnamənin surəti bizdə var. İş icradadır.</t>
+  </si>
+  <si>
+    <t>FƏTƏLİYEV ŞAHİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000019000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000019000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000019000AZN</t>
+  </si>
+  <si>
+    <t>12-07-2009</t>
+  </si>
+  <si>
+    <t>14-07-2014</t>
+  </si>
+  <si>
+    <t>12-07-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1800</t>
+  </si>
+  <si>
+    <t>'L-106</t>
+  </si>
+  <si>
+    <t>HƏSƏNOV FİRDOVSİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000020000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000020000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000020000AZN</t>
+  </si>
+  <si>
+    <t>08-11-2016</t>
+  </si>
+  <si>
+    <t>'L-174</t>
+  </si>
+  <si>
+    <t>'PAİD-ə təhvil verilmişdir 07.06.2016-12.10.2016 MIID-ə təhvil verilmişdir 12.10.2016- İddia: əsasdan 9406.67, faizdən 297.10,CƏMİ 9703.77 AZN tələb edilmişdir. Qətnamə:AR Nəsimi rayon məhkəməsinin 10.10.2017-ci il tarixli 2(006)-6340/2017 saylı qətnaməsi (Tam təmin edilmişdir:) Qətnamənin surəti bizdə var. İş icradadır.</t>
+  </si>
+  <si>
+    <t>HƏSƏNOVA TƏRLAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000021000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000021000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000021000AZN</t>
+  </si>
+  <si>
+    <t>01-03-2011</t>
+  </si>
+  <si>
+    <t>01-10-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1290</t>
+  </si>
+  <si>
+    <t>'L-166/10</t>
+  </si>
+  <si>
+    <t>'*MIID-ə təhvil verilmişdir: 17.01.2013 - 22.10.2014 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş Nagıyev Nicatın bildirdiyinə əsasən icradadır lakin heç bir məhkəmə sənədi bizdə yoxdur. *Avtobuslar barədə məlumat yoxdur.</t>
+  </si>
+  <si>
+    <t>15-07-2010</t>
+  </si>
+  <si>
+    <t>15-06-2014</t>
+  </si>
+  <si>
+    <t>'L-163/10</t>
+  </si>
+  <si>
+    <t>QUBA</t>
+  </si>
+  <si>
+    <t>İSKƏNDƏROV CEYHUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000022000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000022000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000022000AZN</t>
+  </si>
+  <si>
+    <t>28-02-2012</t>
+  </si>
+  <si>
+    <t>22-06-2018</t>
+  </si>
+  <si>
+    <t>28-02-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2510</t>
+  </si>
+  <si>
+    <t>'L-01/08-105/08</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  20.00%</t>
+  </si>
+  <si>
+    <t>05-08-2012</t>
+  </si>
+  <si>
+    <t>05-08-2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2445</t>
+  </si>
+  <si>
+    <t>'L-02/08-105/08</t>
+  </si>
+  <si>
+    <t>L-152 İSMAYILOV İSMAYIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000023000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000023000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000023000AZN</t>
+  </si>
+  <si>
+    <t>22-03-2010</t>
+  </si>
+  <si>
+    <t>22-10-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   570</t>
+  </si>
+  <si>
+    <t>'L-152</t>
+  </si>
+  <si>
+    <t>İSMAYILOV ŞAKİR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000024000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000024000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000024000AZN</t>
+  </si>
+  <si>
+    <t>20-10-2011</t>
+  </si>
+  <si>
+    <t>28-10-2014</t>
+  </si>
+  <si>
+    <t>20-06-2014</t>
+  </si>
+  <si>
+    <t>'L-199</t>
+  </si>
+  <si>
+    <t>TİKİNTİ/DİGƏR TİKİNTİLƏR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2560000024002AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  24.00%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  48.00%</t>
+  </si>
+  <si>
+    <t>27-05-2014</t>
+  </si>
+  <si>
+    <t>30-05-2017</t>
+  </si>
+  <si>
+    <t>27-05-2017</t>
+  </si>
+  <si>
+    <t>24-05-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27</t>
+  </si>
+  <si>
+    <t>'S-002/14</t>
+  </si>
+  <si>
+    <t>'SP-002/14</t>
+  </si>
+  <si>
+    <t>'KƏRİMOV TEYMUR HƏŞİM OĞLU</t>
+  </si>
+  <si>
+    <t>'buraxılış ili 1997</t>
+  </si>
+  <si>
+    <t>MUSTAFAYEV SƏNAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000025000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000025000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000025000AZN</t>
+  </si>
+  <si>
+    <t>30-07-2008</t>
+  </si>
+  <si>
+    <t>30-07-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30</t>
+  </si>
+  <si>
+    <t>'L-109/08</t>
+  </si>
+  <si>
+    <t>'*MIID-ə təhvil verilmişdir: 10.11.2010 - 03.08.2011 18.12.2012 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş Nağıyev Nicat bildirdi ki, dəqiqləşdiriləcək.  *Lizinq obyekti "SX3314VE366" markal? d.n.n-n? 90 JH 249 olan yuk maşını müştərinin istifadəsindədir. * Zamin Mustafayev Əli Mustafa oğluyla Z-109/08 zaminlik müq mövcuddur.</t>
+  </si>
+  <si>
+    <t>ORUCOV MALİK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000026000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000026000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000026000AZN</t>
+  </si>
+  <si>
+    <t>20-12-2010</t>
+  </si>
+  <si>
+    <t>20-11-2013</t>
+  </si>
+  <si>
+    <t>23-01-2015</t>
+  </si>
+  <si>
+    <t>'L-179/10</t>
+  </si>
+  <si>
+    <t>'PAİD-ə təhvil verilmişdir 19.02.2014-23.01.2015 *MIID-ə təhvil verilmişdir: 05.08.2016 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *Lizinq obyekti olan avtobuslar müştərinin balansına keçirilmişdir (Kərimov Əsgər).</t>
+  </si>
+  <si>
+    <t>L-130 PAŞALI ORXAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000027000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000027000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000027000AZN</t>
+  </si>
+  <si>
+    <t>04-02-2009</t>
+  </si>
+  <si>
+    <t>02-04-2014</t>
+  </si>
+  <si>
+    <t>04-02-2014</t>
+  </si>
+  <si>
+    <t>04-04-2014</t>
+  </si>
+  <si>
+    <t>'L-130</t>
+  </si>
+  <si>
+    <t>QASIMOV RAMİN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000028000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000028000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000028000AZN</t>
+  </si>
+  <si>
+    <t>01-01-2007</t>
+  </si>
+  <si>
+    <t>01-01-2010</t>
+  </si>
+  <si>
+    <t>'L-165/10</t>
+  </si>
+  <si>
+    <t>'*MİİD-ə təhvil verilmişdir: 16.06.2011 -  *Məhkəmə işi ilə bağlı hec bir məlumat yoxdur. (Təmin edilməmiş qətnamə olmalıdır.)</t>
+  </si>
+  <si>
+    <t>QƏDİROV AQİL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000029000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000029000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000029000AZN</t>
+  </si>
+  <si>
+    <t>01-05-2008</t>
+  </si>
+  <si>
+    <t>01-10-2012</t>
+  </si>
+  <si>
+    <t>13-08-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1590</t>
+  </si>
+  <si>
+    <t>QALDIRCI KRAN</t>
+  </si>
+  <si>
+    <t>'L-126/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'*Qətnamə: Bakı Apellyasiya Məhkəməsinin 22.07.2010-cu il tarixli 2-1(103)-375/2010 saylı  qətnaməsi. (Qətnamə tam təmin edilib, Surəti bizdə yoxdur.)  Layihəyə ZAMİN Məmmədov Fariz olmalıdır deyəsən təmin etməyib məhkəmə zamin hissəsində. *İş icradadır. *POTAIN MCİ85A/B markalı qulləli kran tərəfimizdən musadirə olunaraq 180 000,00 AZN-nəsatışı təmin edilmişdir. Butun məbləğ mustərinin borcundan silinmisdir. </t>
+  </si>
+  <si>
+    <t>L-198 RƏŞİDOV MEHDİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000030000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000030000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000030000AZN</t>
+  </si>
+  <si>
+    <t>06-06-2011</t>
+  </si>
+  <si>
+    <t>07-02-2017</t>
+  </si>
+  <si>
+    <t>06-06-2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06</t>
+  </si>
+  <si>
+    <t>'L-198</t>
+  </si>
+  <si>
+    <t>L-180 RƏŞİDOV ZAUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000031000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000031000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000031000AZN</t>
+  </si>
+  <si>
+    <t>01-01-2012</t>
+  </si>
+  <si>
+    <t>01-01-2014</t>
+  </si>
+  <si>
+    <t>01-08-2016</t>
+  </si>
+  <si>
+    <t>'L-180</t>
+  </si>
+  <si>
+    <t>L-193 RƏSULOV MÜŞFİQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000032000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000032000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000032000AZN</t>
+  </si>
+  <si>
+    <t>30-05-2018</t>
+  </si>
+  <si>
+    <t>'L-193</t>
+  </si>
+  <si>
+    <t>L-161 SƏFƏROV NAZİM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000033000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000033000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000033000AZN</t>
+  </si>
+  <si>
+    <t>07-05-2010</t>
+  </si>
+  <si>
+    <t>10-11-2016</t>
+  </si>
+  <si>
+    <t>07-05-2013</t>
+  </si>
+  <si>
+    <t>'L-161</t>
+  </si>
+  <si>
+    <t>L-196 SƏFƏROVA KƏMALƏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000034000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000034000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000034000AZN</t>
+  </si>
+  <si>
+    <t>02-03-2020</t>
+  </si>
+  <si>
+    <t>'L-196</t>
+  </si>
+  <si>
+    <t>TAĞIYEV BAĞIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000035000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000035000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000035000AZN</t>
+  </si>
+  <si>
+    <t>08-08-2008</t>
+  </si>
+  <si>
+    <t>21-11-2017</t>
+  </si>
+  <si>
+    <t>08-08-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08</t>
+  </si>
+  <si>
+    <t>'L-114</t>
+  </si>
+  <si>
+    <t>28-10-2008</t>
+  </si>
+  <si>
+    <t>28-10-2011</t>
+  </si>
+  <si>
+    <t>'L-125</t>
+  </si>
+  <si>
+    <t>TAĞIYEV ÇİNGİZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000036000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000036000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000036000AZN</t>
+  </si>
+  <si>
+    <t>'L-067/07</t>
+  </si>
+  <si>
+    <t>'MIID-ə təhvil verilmişdir: 12.10.2009-15.02.2010 18.11.2012- İddia: əsasdan 100041.59, faizdən 15245.31, CƏMİ 115286.90 AZN tələb edilmişdir. Qətnamə:AR 2 saylı Bakı Yerli İqtisad Məhkəməsinin 08.04.2010-cu il tarixli qətnaməsi (Tam təmin edilmişdir) Qət edildi : 100041.59, faizdən 15245.31, CƏMİ 115286.90 AZN Qətnaməsinin surəti bizdə var. İş icradadır.</t>
+  </si>
+  <si>
+    <t>L-200 VƏZİROV ELNUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000037000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000037000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000037000AZN</t>
+  </si>
+  <si>
+    <t>17-07-2011</t>
+  </si>
+  <si>
+    <t>30-03-2017</t>
+  </si>
+  <si>
+    <t>17-06-2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17</t>
+  </si>
+  <si>
+    <t>'L-200</t>
+  </si>
+  <si>
+    <t>MƏMMƏDOV RAMİZ MAHAL OĞLU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1740000038000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160000038000AZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2470000038000AZN</t>
+  </si>
+  <si>
+    <t>30-11-2007</t>
+  </si>
+  <si>
     <t>13-05-2020</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1110</t>
-  </si>
-  <si>
-    <t>TİCARƏT</t>
-  </si>
-  <si>
-    <t>'L-138/09</t>
-  </si>
-  <si>
-    <t>'PAİDƏ-ə verilmə tarixi 05.03.2014 *Qətnamə: olmalıdır. Lakin bizdə məhkəmə sənədlərinə dair heçbir sənəd yoxdur. İş hansı mərhələdədirsə bilinmir.</t>
-  </si>
-  <si>
-    <t>MİRZƏYEV ŞAİQ SOMAR OĞLU</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>SAHİBKARLIQ FƏALİYYƏTİ İLƏ MƏŞĞUL OLAN REZİDENT FİZİKİ ŞƏXSLƏR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000007000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000007000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000007000AZN</t>
-  </si>
-  <si>
-    <t>05-12-2013</t>
-  </si>
-  <si>
-    <t>05-08-2016</t>
-  </si>
-  <si>
-    <t>13-08-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   960</t>
-  </si>
-  <si>
-    <t>ÖZÜBOŞALDAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2283</t>
-  </si>
-  <si>
-    <t>'01/14-01/13-106/08</t>
-  </si>
-  <si>
-    <t>'BURAYEV XƏLİL</t>
-  </si>
-  <si>
-    <t>'PAİD-ə təhvil verilmişdir: 09.02.2016 - MIID-ə təhvil verilmişdir: 11.07.2016 - Qətnamə: Şərur rayon məhkəməsinin 20.07.2018-ci il tarixli 2(110)-380/2018 saylı qətnaməsi. (Tam təmin olunub. Surəti bizdə var.) Qət edilib: 15476 AZN İş icradadır. (Lizinq obyekti müştəridədir.!!!)</t>
-  </si>
-  <si>
-    <t>"KƏNAN SN" MMC</t>
-  </si>
-  <si>
-    <t>NƏQLİYYAT VƏ RABİTƏ SEKTORUNDA FƏALİYYƏT GÖSTƏRƏN ÖZƏL MÜƏSSİSƏLƏR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000008000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000008000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000008000AZN</t>
-  </si>
-  <si>
-    <t>15-03-2010</t>
-  </si>
-  <si>
-    <t>15-03-2012</t>
-  </si>
-  <si>
-    <t>08-12-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   720</t>
-  </si>
-  <si>
-    <t>'L-158</t>
-  </si>
-  <si>
-    <t>"M DİZAYN" MMC</t>
-  </si>
-  <si>
-    <t>DİGƏR SEKTORLARDA FƏALİYYƏT GÖSTƏRƏN ÖZƏL MÜƏSSİSƏLƏR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000009000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000009000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000009000AZN</t>
-  </si>
-  <si>
-    <t>24-03-2009</t>
-  </si>
-  <si>
-    <t>01-12-2017</t>
-  </si>
-  <si>
-    <t>24-02-2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24</t>
-  </si>
-  <si>
-    <t>DIGƏR</t>
-  </si>
-  <si>
-    <t>'L-079</t>
-  </si>
-  <si>
-    <t>"MRX KRANE" MMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000010000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000010000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000010000AZN</t>
-  </si>
-  <si>
-    <t>09-01-2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     5</t>
-  </si>
-  <si>
-    <t>'L-184</t>
-  </si>
-  <si>
-    <t>SUMQAYIT</t>
-  </si>
-  <si>
-    <t>"ORİENT WİNGS" MMC</t>
-  </si>
-  <si>
-    <t>DAŞINMAZ ƏMLAKIN ALINMASI VƏ YA TİKİLMƏSİ ÜÇÜN VƏ BU ƏMLAKIN GİROV ÖZ H/Ş XA/VA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000011000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000011000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000011000AZN</t>
-  </si>
-  <si>
-    <t>03-09-2007</t>
-  </si>
-  <si>
-    <t>01-04-2014</t>
-  </si>
-  <si>
-    <t>03-09-2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 03</t>
-  </si>
-  <si>
-    <t>'L-046/07</t>
-  </si>
-  <si>
-    <t>'*PAİD-ə verilmişdir: 25.07.2012 - *MIID-ə təhvil verilmişdir : Təhvil-təslim yoxdur. *İddia: Əsasdan 30244.00 AZN, Faizdən 2772.37 AZN, Dəbbədən 7408.02 AZN tələb edilmişdir.. *Qətnamə: Sumqayıt şəhər məhkəməsinin 06.12.2007-ci il tarixli 2-2516/2007 (Tam təmin edilib. Surəti bizdə var.) *İş icradadır.</t>
-  </si>
-  <si>
-    <t>"UĞURLU" MMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000012000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000012000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000012000AZN</t>
-  </si>
-  <si>
-    <t>02-04-2011</t>
-  </si>
-  <si>
-    <t>02-11-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1650</t>
-  </si>
-  <si>
-    <t>'L-182/10</t>
-  </si>
-  <si>
-    <t>'*MIID-ə təhvil verilmişdir: 26.12.2012 - 22.10.2014 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş hüquqdadır. *Avtobuslar barədə məlumat yoxdur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1638</t>
-  </si>
-  <si>
-    <t>'L-192/11</t>
-  </si>
-  <si>
-    <t>20-09-2011</t>
-  </si>
-  <si>
-    <t>20-08-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1410</t>
-  </si>
-  <si>
-    <t>'L-201/11</t>
-  </si>
-  <si>
-    <t>"XƏZƏR YKT" MMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000013000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000013000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000013000AZN</t>
-  </si>
-  <si>
-    <t>15-10-2010</t>
-  </si>
-  <si>
-    <t>15-09-2013</t>
-  </si>
-  <si>
-    <t>16-01-2020</t>
-  </si>
-  <si>
-    <t>'L-167/10</t>
-  </si>
-  <si>
-    <t>'MİİD-ə təhvil verilmişdir 18.01.2013- Qətnamə: AR 2 saylı Bakı İnzibati-İqtisad məh-nin 2(82)-535/2015 saylı 14.04.2015-ci il tarixli icra sənədi var bizdə  yoxdu. 23.11.2015 N 7796 icra sənədinin surəti bizdə var  14.05.2018-ci il tarixind' AR 2 saylı Bakı İnzibati-İqtisad məhkəm-nin 2(82)-1488/2015 saylı qərardadına əsasən müflis elan edilmişdir. *İşin hansı mərhələdə olmasi bilinmir. *Lizinq obyekti 5 əd "HOWO" markalı yük maşınlarının satışı təmin edilmişdir. Butun məbləğ mustərinin borcundan silinib.</t>
-  </si>
-  <si>
-    <t>L-077 BAĞIROV İLQAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000014000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000014000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000014000AZN</t>
-  </si>
-  <si>
-    <t>28-01-2009</t>
-  </si>
-  <si>
-    <t>23-05-2014</t>
-  </si>
-  <si>
-    <t>28-08-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   930</t>
-  </si>
-  <si>
-    <t>'L-077</t>
-  </si>
-  <si>
-    <t>BƏDƏLOVA ZƏRQƏLƏM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000015000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000015000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000015000AZN</t>
-  </si>
-  <si>
-    <t>09-04-2008</t>
-  </si>
-  <si>
-    <t>09-04-2009</t>
-  </si>
-  <si>
-    <t>08-05-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 09</t>
-  </si>
-  <si>
-    <t>'L-01/08-073/07</t>
-  </si>
-  <si>
-    <t>'*MIID-ə təhvil verilmişdir: 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş hüquqdadır. *Lizinq obyekti olan "Doosan SL 225 LC-V" markal? d.n.n.-ı Az 10 E 447 olan t?rt?ll? ekskavator mustərinin istifadəsindədir. Ənvər adlı şəxslə (050 200 17 57; 012 596 17 98) əlaqə saxlanılıb. (Əsgərov Vilayət qovluğu ilə əlaqəlidir.)</t>
-  </si>
-  <si>
-    <t>CABBAROV FƏRHAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000016000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000016000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000016000AZN</t>
-  </si>
-  <si>
-    <t>09-10-2011</t>
-  </si>
-  <si>
-    <t>11-11-2014</t>
-  </si>
-  <si>
-    <t>09-01-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   450</t>
-  </si>
-  <si>
-    <t>'L-202</t>
-  </si>
-  <si>
-    <t>ƏSGƏROV HİDAYƏT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000017000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000017000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000017000AZN</t>
-  </si>
-  <si>
-    <t>09-09-2011</t>
-  </si>
-  <si>
-    <t>21-05-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    30</t>
-  </si>
-  <si>
-    <t>'L-187</t>
-  </si>
-  <si>
-    <t>'MIID-ə təhvil verilmişdir : 09.02.2016 İddia: Əsasdan 199200.00 AZN, Faizdən 1327.34 AZN tələb edilmişdir.. Qətnamə: AR Ali Məhkəməsinin Mulki Kollegiyasının Qərarı 13.12.2019-cu il tarixli 2(102)-7681/2019 (Tam təmin edilib. Surəti bizdə var.) Qət edildi : əsasdan 199200.00 AZN, Faizdən 11327.34 AZN</t>
-  </si>
-  <si>
-    <t>FƏTƏLİYEV FUAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000018000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000018000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000018000AZN</t>
-  </si>
-  <si>
-    <t>07-08-2009</t>
-  </si>
-  <si>
-    <t>07-12-2014</t>
-  </si>
-  <si>
-    <t>29-07-2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1920</t>
-  </si>
-  <si>
-    <t>'L-107</t>
-  </si>
-  <si>
-    <t>'MIID-ə təhvil verilmişdir: 02.11.2009-12.11.2010 02.05.2011- İddia: əsasdan 64270,99, faizdən 60473,96, CƏMİ 124744,95AZN. Qətnamə:AR Bakı Apellyasiya məhkəməsinin 12 sentyabr 2012-ci il tarixli iş N: 2-1(103)-349/2012. (Qismən təmin edilmişdir:)Qət edildi :  CƏMİ 7349AZN və 20 dövlət rüsumu tutulsun. Qətnamənin surəti bizdə var. İş icradadır.</t>
-  </si>
-  <si>
-    <t>FƏTƏLİYEV ŞAHİN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000019000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000019000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000019000AZN</t>
-  </si>
-  <si>
-    <t>12-07-2009</t>
-  </si>
-  <si>
-    <t>14-07-2014</t>
-  </si>
-  <si>
-    <t>12-07-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1800</t>
-  </si>
-  <si>
-    <t>'L-106</t>
-  </si>
-  <si>
-    <t>HƏSƏNOV FİRDOVSİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000020000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000020000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000020000AZN</t>
-  </si>
-  <si>
-    <t>08-11-2016</t>
-  </si>
-  <si>
-    <t>'L-174</t>
-  </si>
-  <si>
-    <t>'PAİD-ə təhvil verilmişdir 07.06.2016-12.10.2016 MIID-ə təhvil verilmişdir 12.10.2016- İddia: əsasdan 9406.67, faizdən 297.10,CƏMİ 9703.77 AZN tələb edilmişdir. Qətnamə:AR Nəsimi rayon məhkəməsinin 10.10.2017-ci il tarixli 2(006)-6340/2017 saylı qətnaməsi (Tam təmin edilmişdir:) Qətnamənin surəti bizdə var. İş icradadır.</t>
-  </si>
-  <si>
-    <t>HƏSƏNOVA TƏRLAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000021000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000021000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000021000AZN</t>
-  </si>
-  <si>
-    <t>01-03-2011</t>
-  </si>
-  <si>
-    <t>01-10-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1290</t>
-  </si>
-  <si>
-    <t>'L-166/10</t>
-  </si>
-  <si>
-    <t>'*MIID-ə təhvil verilmişdir: 17.01.2013 - 22.10.2014 24.10.2014 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş Nagıyev Nicatın bildirdiyinə əsasən icradadır lakin heç bir məhkəmə sənədi bizdə yoxdur. *Avtobuslar barədə məlumat yoxdur.</t>
-  </si>
-  <si>
-    <t>15-07-2010</t>
-  </si>
-  <si>
-    <t>15-06-2014</t>
-  </si>
-  <si>
-    <t>'L-163/10</t>
-  </si>
-  <si>
-    <t>QUBA</t>
-  </si>
-  <si>
-    <t>İSKƏNDƏROV CEYHUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000022000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000022000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000022000AZN</t>
-  </si>
-  <si>
-    <t>28-02-2012</t>
-  </si>
-  <si>
-    <t>22-06-2018</t>
-  </si>
-  <si>
-    <t>28-02-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2258</t>
-  </si>
-  <si>
-    <t>'L-01/08-105/08</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  20.00%</t>
-  </si>
-  <si>
-    <t>05-08-2012</t>
-  </si>
-  <si>
-    <t>05-08-2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2193</t>
-  </si>
-  <si>
-    <t>'L-02/08-105/08</t>
-  </si>
-  <si>
-    <t>L-152 İSMAYILOV İSMAYIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000023000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000023000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000023000AZN</t>
-  </si>
-  <si>
-    <t>22-03-2010</t>
-  </si>
-  <si>
-    <t>22-10-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   570</t>
-  </si>
-  <si>
-    <t>'L-152</t>
-  </si>
-  <si>
-    <t>İSMAYILOV ŞAKİR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000024000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000024000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000024000AZN</t>
-  </si>
-  <si>
-    <t>20-10-2011</t>
-  </si>
-  <si>
-    <t>28-10-2014</t>
-  </si>
-  <si>
-    <t>20-06-2014</t>
-  </si>
-  <si>
-    <t>'L-199</t>
-  </si>
-  <si>
-    <t>TİKİNTİ/DİGƏR TİKİNTİLƏR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2560000024002AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  24.00%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  48.00%</t>
-  </si>
-  <si>
-    <t>27-05-2014</t>
-  </si>
-  <si>
-    <t>30-05-2017</t>
-  </si>
-  <si>
-    <t>27-05-2017</t>
-  </si>
-  <si>
-    <t>24-05-2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 27</t>
-  </si>
-  <si>
-    <t>'S-002/14</t>
-  </si>
-  <si>
-    <t>'SP-002/14</t>
-  </si>
-  <si>
-    <t>'KƏRİMOV TEYMUR HƏŞİM OĞLU</t>
-  </si>
-  <si>
-    <t>'buraxılış ili 1997</t>
-  </si>
-  <si>
-    <t>MUSTAFAYEV SƏNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000025000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000025000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000025000AZN</t>
-  </si>
-  <si>
-    <t>30-07-2008</t>
-  </si>
-  <si>
-    <t>30-07-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 30</t>
-  </si>
-  <si>
-    <t>'L-109/08</t>
-  </si>
-  <si>
-    <t>'*MIID-ə təhvil verilmişdir: 10.11.2010 - 03.08.2011 18.12.2012 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *İş Nağıyev Nicat bildirdi ki, dəqiqləşdiriləcək.  *Lizinq obyekti "SX3314VE366" markal? d.n.n-n? 90 JH 249 olan yuk maşını müştərinin istifadəsindədir. * Zamin Mustafayev Əli Mustafa oğluyla Z-109/08 zaminlik müq mövcuddur.</t>
-  </si>
-  <si>
-    <t>ORUCOV MALİK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000026000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000026000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000026000AZN</t>
-  </si>
-  <si>
-    <t>20-12-2010</t>
-  </si>
-  <si>
-    <t>20-11-2013</t>
-  </si>
-  <si>
-    <t>23-01-2015</t>
-  </si>
-  <si>
-    <t>'L-179/10</t>
-  </si>
-  <si>
-    <t>'PAİD-ə təhvil verilmişdir 19.02.2014-23.01.2015 *MIID-ə təhvil verilmişdir: 05.08.2016 -  *Məhkəmə prosesi ilə bağlı heç bir məlumat yoxdur. *Lizinq obyekti olan avtobuslar müştərinin balansına keçirilmişdir (Kərimov Əsgər).</t>
-  </si>
-  <si>
-    <t>L-130 PAŞALI ORXAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000027000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000027000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000027000AZN</t>
-  </si>
-  <si>
-    <t>04-02-2009</t>
-  </si>
-  <si>
-    <t>02-04-2014</t>
-  </si>
-  <si>
-    <t>04-02-2014</t>
-  </si>
-  <si>
-    <t>04-04-2014</t>
-  </si>
-  <si>
-    <t>'L-130</t>
-  </si>
-  <si>
-    <t>QASIMOV RAMİN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000028000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000028000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000028000AZN</t>
-  </si>
-  <si>
-    <t>01-01-2007</t>
-  </si>
-  <si>
-    <t>01-01-2010</t>
-  </si>
-  <si>
-    <t>'L-165/10</t>
-  </si>
-  <si>
-    <t>'*MİİD-ə təhvil verilmişdir: 16.06.2011 -  *Məhkəmə işi ilə bağlı hec bir məlumat yoxdur. (Təmin edilməmiş qətnamə olmalıdır.)</t>
-  </si>
-  <si>
-    <t>QƏDİROV AQİL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000029000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000029000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000029000AZN</t>
-  </si>
-  <si>
-    <t>01-05-2008</t>
-  </si>
-  <si>
-    <t>01-10-2012</t>
-  </si>
-  <si>
-    <t>13-08-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1590</t>
-  </si>
-  <si>
-    <t>QALDIRCI KRAN</t>
-  </si>
-  <si>
-    <t>'L-126/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">'*Qətnamə: Bakı Apellyasiya Məhkəməsinin 22.07.2010-cu il tarixli 2-1(103)-375/2010 saylı  qətnaməsi. (Qətnamə tam təmin edilib, Surəti bizdə yoxdur.)  Layihəyə ZAMİN Məmmədov Fariz olmalıdır deyəsən təmin etməyib məhkəmə zamin hissəsində. *İş icradadır. *POTAIN MCİ85A/B markalı qulləli kran tərəfimizdən musadirə olunaraq 180 000,00 AZN-nəsatışı təmin edilmişdir. Butun məbləğ mustərinin borcundan silinmisdir. </t>
-  </si>
-  <si>
-    <t>L-198 RƏŞİDOV MEHDİ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000030000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000030000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000030000AZN</t>
-  </si>
-  <si>
-    <t>06-06-2011</t>
-  </si>
-  <si>
-    <t>07-02-2017</t>
-  </si>
-  <si>
-    <t>06-06-2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 06</t>
-  </si>
-  <si>
-    <t>'L-198</t>
-  </si>
-  <si>
-    <t>L-180 RƏŞİDOV ZAUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000031000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000031000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000031000AZN</t>
-  </si>
-  <si>
-    <t>01-01-2012</t>
-  </si>
-  <si>
-    <t>01-01-2014</t>
-  </si>
-  <si>
-    <t>01-08-2016</t>
-  </si>
-  <si>
-    <t>'L-180</t>
-  </si>
-  <si>
-    <t>L-193 RƏSULOV MÜŞFİQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000032000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000032000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000032000AZN</t>
-  </si>
-  <si>
-    <t>30-05-2018</t>
-  </si>
-  <si>
-    <t>'L-193</t>
-  </si>
-  <si>
-    <t>L-161 SƏFƏROV NAZİM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000033000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000033000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000033000AZN</t>
-  </si>
-  <si>
-    <t>07-05-2010</t>
-  </si>
-  <si>
-    <t>10-11-2016</t>
-  </si>
-  <si>
-    <t>07-05-2013</t>
-  </si>
-  <si>
-    <t>'L-161</t>
-  </si>
-  <si>
-    <t>L-196 SƏFƏROVA KƏMALƏ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000034000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000034000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000034000AZN</t>
-  </si>
-  <si>
-    <t>02-03-2020</t>
-  </si>
-  <si>
-    <t>'L-196</t>
-  </si>
-  <si>
-    <t>TAĞIYEV BAĞIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000035000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000035000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000035000AZN</t>
-  </si>
-  <si>
-    <t>08-08-2008</t>
-  </si>
-  <si>
-    <t>21-11-2017</t>
-  </si>
-  <si>
-    <t>08-08-2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 08</t>
-  </si>
-  <si>
-    <t>'L-114</t>
-  </si>
-  <si>
-    <t>28-10-2008</t>
-  </si>
-  <si>
-    <t>28-10-2011</t>
-  </si>
-  <si>
-    <t>'L-125</t>
-  </si>
-  <si>
-    <t>TAĞIYEV ÇİNGİZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000036000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000036000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000036000AZN</t>
-  </si>
-  <si>
-    <t>'L-067/07</t>
-  </si>
-  <si>
-    <t>'MIID-ə təhvil verilmişdir: 12.10.2009-15.02.2010 18.11.2012- İddia: əsasdan 100041.59, faizdən 15245.31, CƏMİ 115286.90 AZN tələb edilmişdir. Qətnamə:AR 2 saylı Bakı Yerli İqtisad Məhkəməsinin 08.04.2010-cu il tarixli qətnaməsi (Tam təmin edilmişdir) Qət edildi : 100041.59, faizdən 15245.31, CƏMİ 115286.90 AZN Qətnaməsinin surəti bizdə var. İş icradadır.</t>
-  </si>
-  <si>
-    <t>L-200 VƏZİROV ELNUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000037000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000037000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000037000AZN</t>
-  </si>
-  <si>
-    <t>17-07-2011</t>
-  </si>
-  <si>
-    <t>30-03-2017</t>
-  </si>
-  <si>
-    <t>17-06-2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17</t>
-  </si>
-  <si>
-    <t>'L-200</t>
-  </si>
-  <si>
-    <t>XƏDİCƏ Ə.R</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1740000038000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2160000038000AZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2470000038000AZN</t>
-  </si>
-  <si>
-    <t>30-11-2007</t>
-  </si>
-  <si>
     <t>30-11-2009</t>
   </si>
   <si>
@@ -1578,7 +1581,7 @@
     <t>27-11-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">   761</t>
+    <t xml:space="preserve">  1013</t>
   </si>
   <si>
     <t>'S-001/14</t>
@@ -1692,7 +1695,7 @@
     <t>YARIMQOŞQU VƏ DARTICI</t>
   </si>
   <si>
-    <t xml:space="preserve">  1298</t>
+    <t xml:space="preserve">  1550</t>
   </si>
   <si>
     <t>'S-004/14</t>
@@ -1818,7 +1821,7 @@
     <t>07-05-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">  1323</t>
+    <t xml:space="preserve">  1575</t>
   </si>
   <si>
     <t>'S-003/14</t>
@@ -1854,13 +1857,13 @@
     <t>05-06-2020</t>
   </si>
   <si>
-    <t>01-12-2020</t>
+    <t>30-04-2021</t>
   </si>
   <si>
     <t xml:space="preserve">   390</t>
   </si>
   <si>
-    <t xml:space="preserve">   153</t>
+    <t xml:space="preserve">   405</t>
   </si>
   <si>
     <t>'S-008/14</t>
@@ -1893,7 +1896,7 @@
     <t>12-08-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">    49</t>
+    <t xml:space="preserve">   301</t>
   </si>
   <si>
     <t>'S-009/14</t>
@@ -1974,7 +1977,7 @@
     <t>27-06-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1271</t>
+    <t xml:space="preserve">  1523</t>
   </si>
   <si>
     <t>'S-011/14</t>
@@ -2052,7 +2055,7 @@
     <t xml:space="preserve">   240</t>
   </si>
   <si>
-    <t xml:space="preserve">  1247</t>
+    <t xml:space="preserve">  1499</t>
   </si>
   <si>
     <t>'S-013/14</t>
@@ -2088,10 +2091,10 @@
     <t>10-03-2016</t>
   </si>
   <si>
-    <t>07-01-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1108</t>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1360</t>
   </si>
   <si>
     <t>'S-007/14</t>
@@ -2349,16 +2352,13 @@
     <t>13-02-2016</t>
   </si>
   <si>
-    <t>03-09-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 13</t>
   </si>
   <si>
     <t xml:space="preserve">   540</t>
   </si>
   <si>
-    <t xml:space="preserve">  1795</t>
+    <t xml:space="preserve">  2017</t>
   </si>
   <si>
     <t>'L-01/14-126/08</t>
@@ -2391,7 +2391,7 @@
     <t xml:space="preserve">     90</t>
   </si>
   <si>
-    <t xml:space="preserve">   820</t>
+    <t xml:space="preserve">  1072</t>
   </si>
   <si>
     <t>'S-020/14</t>
@@ -2562,7 +2562,7 @@
     <t>24-09-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1214</t>
+    <t xml:space="preserve">  1466</t>
   </si>
   <si>
     <t>'S-024/14</t>
@@ -2664,7 +2664,7 @@
     <t>15-09-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">  1341</t>
+    <t xml:space="preserve">  1593</t>
   </si>
   <si>
     <t>'S-027/14</t>
@@ -2745,7 +2745,7 @@
     <t>27-10-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1151</t>
+    <t xml:space="preserve">  1403</t>
   </si>
   <si>
     <t>'S-029/14</t>
@@ -2781,7 +2781,7 @@
     <t>29-10-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1179</t>
+    <t xml:space="preserve">  1431</t>
   </si>
   <si>
     <t>'S-031/14</t>
@@ -2823,7 +2823,7 @@
     <t xml:space="preserve"> 31</t>
   </si>
   <si>
-    <t xml:space="preserve">  1328</t>
+    <t xml:space="preserve">  1580</t>
   </si>
   <si>
     <t>'S-032/14</t>
@@ -2889,7 +2889,7 @@
     <t>24-11-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1143</t>
+    <t xml:space="preserve">  1395</t>
   </si>
   <si>
     <t>'S-033/14</t>
@@ -3084,7 +3084,7 @@
     <t>30-11-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1157</t>
+    <t xml:space="preserve">  1409</t>
   </si>
   <si>
     <t>'S-040/14</t>
@@ -3303,7 +3303,7 @@
     <t>25-06-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">  1123</t>
+    <t xml:space="preserve">  1375</t>
   </si>
   <si>
     <t>'S-046/14</t>
@@ -3402,7 +3402,7 @@
     <t>30-01-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">  1058</t>
+    <t xml:space="preserve">  1310</t>
   </si>
   <si>
     <t>'S-049/15</t>
@@ -3435,7 +3435,7 @@
     <t>07-01-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">  1535</t>
+    <t xml:space="preserve">  1787</t>
   </si>
   <si>
     <t>'S-050/15</t>
@@ -3474,7 +3474,7 @@
     <t>11-02-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">  1047</t>
+    <t xml:space="preserve">  1299</t>
   </si>
   <si>
     <t>'S-051/15</t>
@@ -3855,10 +3855,10 @@
     <t>27-02-2021</t>
   </si>
   <si>
-    <t>30-10-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   221</t>
+    <t>21-04-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   443</t>
   </si>
   <si>
     <t>'S-058/15</t>
@@ -4020,7 +4020,7 @@
     <t>01-07-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">   997</t>
+    <t xml:space="preserve">  1249</t>
   </si>
   <si>
     <t>'S-062/15</t>
@@ -4047,7 +4047,7 @@
     <t>03-03-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">  1204</t>
+    <t xml:space="preserve">  1456</t>
   </si>
   <si>
     <t>'S-01/15-048/15</t>
@@ -4077,7 +4077,7 @@
     <t xml:space="preserve">   600</t>
   </si>
   <si>
-    <t xml:space="preserve">  1479</t>
+    <t xml:space="preserve">  1731</t>
   </si>
   <si>
     <t>'L-01/15-03/14-167/10</t>
@@ -4110,7 +4110,7 @@
     <t xml:space="preserve">   840</t>
   </si>
   <si>
-    <t xml:space="preserve">  1133</t>
+    <t xml:space="preserve">  1385</t>
   </si>
   <si>
     <t>'S-01/15-037/14</t>
@@ -4233,7 +4233,7 @@
     <t>09-02-2027</t>
   </si>
   <si>
-    <t>03-12-2020</t>
+    <t>12-07-2021</t>
   </si>
   <si>
     <t xml:space="preserve">  4020</t>
@@ -4242,7 +4242,7 @@
     <t xml:space="preserve">     30</t>
   </si>
   <si>
-    <t xml:space="preserve">    51</t>
+    <t xml:space="preserve">   123</t>
   </si>
   <si>
     <t>'L-195/11</t>
@@ -4353,7 +4353,7 @@
     <t xml:space="preserve">  1500</t>
   </si>
   <si>
-    <t xml:space="preserve">   692</t>
+    <t xml:space="preserve">   944</t>
   </si>
   <si>
     <t>'L-01/16-02/14-167/10</t>
@@ -4587,7 +4587,7 @@
     <t xml:space="preserve">   420</t>
   </si>
   <si>
-    <t xml:space="preserve">  1178</t>
+    <t xml:space="preserve">  1430</t>
   </si>
   <si>
     <t>'S-01/16-01/15-026/14</t>
@@ -4701,6 +4701,9 @@
     <t>08-12-2021</t>
   </si>
   <si>
+    <t>12-04-2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">  1830</t>
   </si>
   <si>
@@ -4782,13 +4785,13 @@
     <t>15-12-2020</t>
   </si>
   <si>
-    <t>16-12-2020</t>
+    <t>28-07-2021</t>
   </si>
   <si>
     <t xml:space="preserve">  1440</t>
   </si>
   <si>
-    <t xml:space="preserve">   173</t>
+    <t xml:space="preserve">   365</t>
   </si>
   <si>
     <t>'S-070/16</t>
@@ -4920,10 +4923,13 @@
     <t xml:space="preserve"> 2560000143002AZN</t>
   </si>
   <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
     <t>28-04-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">   700</t>
+    <t xml:space="preserve">   532</t>
   </si>
   <si>
     <t>'S-01/17-01/13-167/10</t>
@@ -4950,10 +4956,10 @@
     <t>23-12-2019</t>
   </si>
   <si>
-    <t>25-11-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   885</t>
+    <t>22-02-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1107</t>
   </si>
   <si>
     <t>'A-01/17-009/14</t>
@@ -5064,7 +5070,7 @@
     <t xml:space="preserve">   510</t>
   </si>
   <si>
-    <t xml:space="preserve">   436</t>
+    <t xml:space="preserve">   688</t>
   </si>
   <si>
     <t>'L-01/18-02/08-105/08</t>
@@ -5112,19 +5118,16 @@
     <t xml:space="preserve"> 2560000150002AZN</t>
   </si>
   <si>
-    <t>20-12-2018</t>
-  </si>
-  <si>
-    <t>20-12-2021</t>
-  </si>
-  <si>
-    <t>22-04-2023</t>
-  </si>
-  <si>
-    <t>22-04-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   196</t>
+    <t xml:space="preserve">  12.00%</t>
+  </si>
+  <si>
+    <t>02-06-2021</t>
+  </si>
+  <si>
+    <t>02-10-2024</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
   <si>
     <t>'S-071/18</t>
@@ -5178,10 +5181,7 @@
     <t>11-02-2021</t>
   </si>
   <si>
-    <t>30-12-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   207</t>
+    <t xml:space="preserve">   399</t>
   </si>
   <si>
     <t>'A-01/19-01/18-01/15-039/14</t>
@@ -5211,7 +5211,7 @@
     <t>28-10-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">   160</t>
+    <t xml:space="preserve">   112</t>
   </si>
   <si>
     <t>'S-01/20-058/15</t>
@@ -5250,7 +5250,7 @@
     <t>Layihe</t>
   </si>
   <si>
-    <t>08.01.2021</t>
+    <t>20.09.2021</t>
   </si>
 </sst>
 </file>
@@ -6101,7 +6101,7 @@
   <dimension ref="A1:BR162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="5">
-        <v>27594.84</v>
+        <v>24257.35</v>
       </c>
       <c r="T10" s="5">
         <v>0</v>
@@ -15745,10 +15745,10 @@
         <v>480</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>154</v>
+        <v>481</v>
       </c>
       <c r="AE46" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF46" s="2" t="s">
         <v>52</v>
@@ -15817,7 +15817,7 @@
         <v>91</v>
       </c>
       <c r="BB46" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="BC46" s="3">
         <v>0</v>
@@ -15960,22 +15960,22 @@
         <v>52</v>
       </c>
       <c r="AE47" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ47" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="AF47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ47" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="AK47" s="4" t="s">
         <v>372</v>
@@ -16029,7 +16029,7 @@
         <v>91</v>
       </c>
       <c r="BB47" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="BC47" s="5">
         <v>0</v>
@@ -16085,7 +16085,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>71</v>
@@ -16100,13 +16100,13 @@
         <v>74</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>2</v>
@@ -16166,7 +16166,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AD48" s="4" t="s">
         <v>52</v>
@@ -16187,7 +16187,7 @@
         <v>52</v>
       </c>
       <c r="AJ48" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AK48" s="4" t="s">
         <v>155</v>
@@ -16199,13 +16199,13 @@
         <v>313</v>
       </c>
       <c r="AN48" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO48" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AP48" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AQ48" s="5">
         <v>0</v>
@@ -16241,7 +16241,7 @@
         <v>91</v>
       </c>
       <c r="BB48" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BC48" s="5">
         <v>0</v>
@@ -16259,7 +16259,7 @@
         <v>52</v>
       </c>
       <c r="BH48" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BI48" s="4" t="s">
         <v>52</v>
@@ -16297,7 +16297,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>71</v>
@@ -16312,13 +16312,13 @@
         <v>74</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>2</v>
@@ -16378,13 +16378,13 @@
         <v>0</v>
       </c>
       <c r="AC49" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE49" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF49" s="4" t="s">
         <v>52</v>
@@ -16417,7 +16417,7 @@
         <v>87</v>
       </c>
       <c r="AP49" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AQ49" s="5">
         <v>0</v>
@@ -16453,7 +16453,7 @@
         <v>91</v>
       </c>
       <c r="BB49" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BC49" s="5">
         <v>0</v>
@@ -16471,7 +16471,7 @@
         <v>52</v>
       </c>
       <c r="BH49" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="BI49" s="4" t="s">
         <v>52</v>
@@ -16509,7 +16509,7 @@
         <v>69</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>71</v>
@@ -16524,13 +16524,13 @@
         <v>74</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>2</v>
@@ -16590,31 +16590,31 @@
         <v>0</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AE50" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AF50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI50" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ50" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="AK50" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL50" s="2" t="s">
         <v>84</v>
@@ -16629,7 +16629,7 @@
         <v>87</v>
       </c>
       <c r="AP50" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AQ50" s="3">
         <v>0</v>
@@ -16665,7 +16665,7 @@
         <v>91</v>
       </c>
       <c r="BB50" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="BC50" s="3">
         <v>0</v>
@@ -16721,7 +16721,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>71</v>
@@ -16736,25 +16736,25 @@
         <v>74</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>79</v>
@@ -16805,7 +16805,7 @@
         <v>357</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AE51" s="2" t="s">
         <v>359</v>
@@ -16814,16 +16814,16 @@
         <v>97</v>
       </c>
       <c r="AG51" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ51" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="AK51" s="2" t="s">
         <v>361</v>
@@ -16841,7 +16841,7 @@
         <v>87</v>
       </c>
       <c r="AP51" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AQ51" s="3">
         <v>0</v>
@@ -16874,10 +16874,10 @@
         <v>90</v>
       </c>
       <c r="BA51" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="BB51" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="BC51" s="3">
         <v>0</v>
@@ -16886,16 +16886,16 @@
         <v>1232.52</v>
       </c>
       <c r="BE51" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="BF51" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="BG51" s="2" t="s">
         <v>357</v>
       </c>
       <c r="BH51" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="BI51" s="2" t="s">
         <v>52</v>
@@ -16933,7 +16933,7 @@
         <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>71</v>
@@ -16948,13 +16948,13 @@
         <v>74</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>2</v>
@@ -17014,28 +17014,28 @@
         <v>0</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AD52" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AE52" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AF52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AH52" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AI52" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AJ52" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK52" s="2" t="s">
         <v>145</v>
@@ -17053,7 +17053,7 @@
         <v>87</v>
       </c>
       <c r="AP52" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AQ52" s="3">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>91</v>
       </c>
       <c r="BB52" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="BC52" s="3">
         <v>0</v>
@@ -17104,7 +17104,7 @@
         <v>93</v>
       </c>
       <c r="BG52" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="BH52" s="2" t="s">
         <v>93</v>
@@ -17145,7 +17145,7 @@
         <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>71</v>
@@ -17160,13 +17160,13 @@
         <v>97</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>2</v>
@@ -17226,13 +17226,13 @@
         <v>0</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AE53" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF53" s="2" t="s">
         <v>52</v>
@@ -17247,10 +17247,10 @@
         <v>52</v>
       </c>
       <c r="AJ53" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AK53" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL53" s="2" t="s">
         <v>84</v>
@@ -17265,7 +17265,7 @@
         <v>87</v>
       </c>
       <c r="AP53" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AQ53" s="3">
         <v>0</v>
@@ -17301,7 +17301,7 @@
         <v>91</v>
       </c>
       <c r="BB53" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="BC53" s="3">
         <v>0</v>
@@ -17319,7 +17319,7 @@
         <v>52</v>
       </c>
       <c r="BH53" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="BI53" s="2" t="s">
         <v>52</v>
@@ -17357,7 +17357,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>71</v>
@@ -17372,13 +17372,13 @@
         <v>223</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>2</v>
@@ -17438,13 +17438,13 @@
         <v>0</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AE54" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF54" s="2" t="s">
         <v>52</v>
@@ -17459,10 +17459,10 @@
         <v>52</v>
       </c>
       <c r="AJ54" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK54" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL54" s="2" t="s">
         <v>84</v>
@@ -17477,7 +17477,7 @@
         <v>87</v>
       </c>
       <c r="AP54" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AQ54" s="3">
         <v>0</v>
@@ -17513,7 +17513,7 @@
         <v>91</v>
       </c>
       <c r="BB54" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="BC54" s="3">
         <v>0</v>
@@ -17569,7 +17569,7 @@
         <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>71</v>
@@ -17584,25 +17584,25 @@
         <v>74</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>79</v>
@@ -17650,10 +17650,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>358</v>
@@ -17671,7 +17671,7 @@
         <v>52</v>
       </c>
       <c r="AJ55" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AK55" s="2" t="s">
         <v>372</v>
@@ -17683,13 +17683,13 @@
         <v>85</v>
       </c>
       <c r="AN55" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO55" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AP55" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AQ55" s="3">
         <v>0</v>
@@ -17722,10 +17722,10 @@
         <v>90</v>
       </c>
       <c r="BA55" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="BB55" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="BC55" s="3">
         <v>0</v>
@@ -17734,13 +17734,13 @@
         <v>1354.85</v>
       </c>
       <c r="BE55" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="BF55" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="BG55" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="BH55" s="2" t="s">
         <v>93</v>
@@ -17781,7 +17781,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>71</v>
@@ -17790,19 +17790,19 @@
         <v>330</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>2</v>
@@ -17862,13 +17862,13 @@
         <v>0</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AE56" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF56" s="2" t="s">
         <v>52</v>
@@ -17883,7 +17883,7 @@
         <v>52</v>
       </c>
       <c r="AJ56" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK56" s="2" t="s">
         <v>223</v>
@@ -17901,7 +17901,7 @@
         <v>87</v>
       </c>
       <c r="AP56" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AQ56" s="3">
         <v>0</v>
@@ -17937,7 +17937,7 @@
         <v>91</v>
       </c>
       <c r="BB56" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="BC56" s="3">
         <v>0</v>
@@ -17946,13 +17946,13 @@
         <v>588.66</v>
       </c>
       <c r="BE56" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="BF56" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BG56" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="BH56" s="2" t="s">
         <v>93</v>
@@ -17993,7 +17993,7 @@
         <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>71</v>
@@ -18002,25 +18002,25 @@
         <v>330</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>355</v>
@@ -18077,10 +18077,10 @@
         <v>350</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AE57" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AF57" s="2" t="s">
         <v>52</v>
@@ -18095,7 +18095,7 @@
         <v>52</v>
       </c>
       <c r="AJ57" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK57" s="2" t="s">
         <v>145</v>
@@ -18113,7 +18113,7 @@
         <v>87</v>
       </c>
       <c r="AP57" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AQ57" s="3">
         <v>0</v>
@@ -18149,7 +18149,7 @@
         <v>91</v>
       </c>
       <c r="BB57" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="BC57" s="3">
         <v>0</v>
@@ -18158,16 +18158,16 @@
         <v>509.92</v>
       </c>
       <c r="BE57" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="BF57" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="BG57" s="2" t="s">
         <v>350</v>
       </c>
       <c r="BH57" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="BI57" s="2" t="s">
         <v>52</v>
@@ -18205,7 +18205,7 @@
         <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>71</v>
@@ -18214,25 +18214,25 @@
         <v>330</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>355</v>
@@ -18286,13 +18286,13 @@
         <v>0</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AE58" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF58" s="2" t="s">
         <v>52</v>
@@ -18307,7 +18307,7 @@
         <v>52</v>
       </c>
       <c r="AJ58" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK58" s="2" t="s">
         <v>214</v>
@@ -18325,7 +18325,7 @@
         <v>87</v>
       </c>
       <c r="AP58" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AQ58" s="3">
         <v>0</v>
@@ -18361,7 +18361,7 @@
         <v>91</v>
       </c>
       <c r="BB58" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="BC58" s="3">
         <v>0</v>
@@ -18373,10 +18373,10 @@
         <v>93</v>
       </c>
       <c r="BF58" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="BG58" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="BH58" s="2" t="s">
         <v>93</v>
@@ -18417,7 +18417,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>329</v>
@@ -18426,31 +18426,31 @@
         <v>330</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>79</v>
@@ -18498,13 +18498,13 @@
         <v>0</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AE59" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF59" s="2" t="s">
         <v>52</v>
@@ -18519,7 +18519,7 @@
         <v>52</v>
       </c>
       <c r="AJ59" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AK59" s="2" t="s">
         <v>169</v>
@@ -18537,7 +18537,7 @@
         <v>87</v>
       </c>
       <c r="AP59" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AQ59" s="3">
         <v>0</v>
@@ -18570,10 +18570,10 @@
         <v>90</v>
       </c>
       <c r="BA59" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="BB59" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="BC59" s="3">
         <v>0</v>
@@ -18582,13 +18582,13 @@
         <v>2712.88</v>
       </c>
       <c r="BE59" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="BF59" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="BG59" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="BH59" s="2" t="s">
         <v>93</v>
@@ -18629,7 +18629,7 @@
         <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>329</v>
@@ -18644,19 +18644,19 @@
         <v>74</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="L60" s="4" t="s">
         <v>78</v>
@@ -18677,10 +18677,10 @@
         <v>31000</v>
       </c>
       <c r="R60" s="5">
-        <v>10646</v>
+        <v>0</v>
       </c>
       <c r="S60" s="5">
-        <v>1960</v>
+        <v>12456</v>
       </c>
       <c r="T60" s="5">
         <v>0</v>
@@ -18710,28 +18710,28 @@
         <v>0</v>
       </c>
       <c r="AC60" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE60" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF60" s="4" t="s">
         <v>419</v>
       </c>
       <c r="AG60" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AH60" s="4" t="s">
         <v>419</v>
       </c>
       <c r="AI60" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AJ60" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AK60" s="4" t="s">
         <v>169</v>
@@ -18740,16 +18740,16 @@
         <v>84</v>
       </c>
       <c r="AM60" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN60" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO60" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AP60" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AQ60" s="5">
         <v>0</v>
@@ -18782,25 +18782,25 @@
         <v>90</v>
       </c>
       <c r="BA60" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="BB60" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="BC60" s="5">
         <v>0</v>
       </c>
       <c r="BD60" s="5">
-        <v>330</v>
+        <v>14526</v>
       </c>
       <c r="BE60" s="4" t="s">
         <v>93</v>
       </c>
       <c r="BF60" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="BG60" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="BH60" s="4" t="s">
         <v>93</v>
@@ -18841,7 +18841,7 @@
         <v>69</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>329</v>
@@ -18856,13 +18856,13 @@
         <v>74</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>2</v>
@@ -18922,19 +18922,19 @@
         <v>0</v>
       </c>
       <c r="AC61" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AD61" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE61" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AF61" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AG61" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AH61" s="4" t="s">
         <v>52</v>
@@ -18943,7 +18943,7 @@
         <v>52</v>
       </c>
       <c r="AJ61" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AK61" s="4" t="s">
         <v>372</v>
@@ -18955,13 +18955,13 @@
         <v>85</v>
       </c>
       <c r="AN61" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO61" s="4" t="s">
         <v>87</v>
       </c>
       <c r="AP61" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AQ61" s="5">
         <v>0</v>
@@ -18994,10 +18994,10 @@
         <v>90</v>
       </c>
       <c r="BA61" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="BB61" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="BC61" s="5">
         <v>0</v>
@@ -19006,16 +19006,16 @@
         <v>3200.9</v>
       </c>
       <c r="BE61" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="BF61" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="BG61" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="BH61" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="BI61" s="4" t="s">
         <v>52</v>
@@ -19053,7 +19053,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>71</v>
@@ -19062,25 +19062,25 @@
         <v>330</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>355</v>
@@ -19134,13 +19134,13 @@
         <v>0</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD62" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE62" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF62" s="2" t="s">
         <v>52</v>
@@ -19155,10 +19155,10 @@
         <v>52</v>
       </c>
       <c r="AJ62" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AK62" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL62" s="2" t="s">
         <v>123</v>
@@ -19173,7 +19173,7 @@
         <v>87</v>
       </c>
       <c r="AP62" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AQ62" s="3">
         <v>0</v>
@@ -19209,7 +19209,7 @@
         <v>91</v>
       </c>
       <c r="BB62" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="BC62" s="3">
         <v>0</v>
@@ -19218,13 +19218,13 @@
         <v>392.23</v>
       </c>
       <c r="BE62" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="BF62" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="BG62" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="BH62" s="2" t="s">
         <v>93</v>
@@ -19265,7 +19265,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>71</v>
@@ -19274,25 +19274,25 @@
         <v>330</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>355</v>
@@ -19346,28 +19346,28 @@
         <v>0</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AE63" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="AF63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ63" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="AK63" s="2" t="s">
         <v>361</v>
@@ -19385,7 +19385,7 @@
         <v>87</v>
       </c>
       <c r="AP63" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AQ63" s="3">
         <v>0</v>
@@ -19418,10 +19418,10 @@
         <v>90</v>
       </c>
       <c r="BA63" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="BB63" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="BC63" s="3">
         <v>0</v>
@@ -19430,13 +19430,13 @@
         <v>353.11</v>
       </c>
       <c r="BE63" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="BF63" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="BG63" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="BH63" s="2" t="s">
         <v>93</v>
@@ -19477,7 +19477,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>71</v>
@@ -19486,19 +19486,19 @@
         <v>330</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>2</v>
@@ -19558,13 +19558,13 @@
         <v>0</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AD64" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AE64" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF64" s="2" t="s">
         <v>52</v>
@@ -19579,7 +19579,7 @@
         <v>52</v>
       </c>
       <c r="AJ64" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AK64" s="2" t="s">
         <v>97</v>
@@ -19597,7 +19597,7 @@
         <v>87</v>
       </c>
       <c r="AP64" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AQ64" s="3">
         <v>0</v>
@@ -19633,7 +19633,7 @@
         <v>91</v>
       </c>
       <c r="BB64" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="BC64" s="3">
         <v>0</v>
@@ -19642,13 +19642,13 @@
         <v>235.26</v>
       </c>
       <c r="BE64" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="BF64" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="BG64" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="BH64" s="2" t="s">
         <v>93</v>
@@ -19689,7 +19689,7 @@
         <v>69</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>71</v>
@@ -19698,25 +19698,25 @@
         <v>330</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>355</v>
@@ -19770,28 +19770,28 @@
         <v>0</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AE65" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AF65" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AH65" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AI65" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AJ65" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AK65" s="2" t="s">
         <v>202</v>
@@ -19800,7 +19800,7 @@
         <v>123</v>
       </c>
       <c r="AM65" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AN65" s="2" t="s">
         <v>86</v>
@@ -19809,7 +19809,7 @@
         <v>87</v>
       </c>
       <c r="AP65" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AQ65" s="3">
         <v>0</v>
@@ -19842,10 +19842,10 @@
         <v>90</v>
       </c>
       <c r="BA65" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="BB65" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="BC65" s="3">
         <v>0</v>
@@ -19854,13 +19854,13 @@
         <v>1911.11</v>
       </c>
       <c r="BE65" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="BF65" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="BG65" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="BH65" s="2" t="s">
         <v>93</v>
@@ -19901,7 +19901,7 @@
         <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>329</v>
@@ -19910,31 +19910,31 @@
         <v>330</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N66" s="4" t="s">
         <v>79</v>
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="5">
-        <v>5500</v>
+        <v>4800</v>
       </c>
       <c r="T66" s="5">
         <v>0</v>
@@ -19961,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="5">
-        <v>7276.36</v>
+        <v>6626.36</v>
       </c>
       <c r="W66" s="5">
         <v>0</v>
@@ -19988,22 +19988,22 @@
         <v>52</v>
       </c>
       <c r="AE66" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF66" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AG66" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AH66" s="4" t="s">
         <v>97</v>
       </c>
       <c r="AI66" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AJ66" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AK66" s="4" t="s">
         <v>227</v>
@@ -20021,7 +20021,7 @@
         <v>87</v>
       </c>
       <c r="AP66" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AQ66" s="5">
         <v>0</v>
@@ -20054,10 +20054,10 @@
         <v>90</v>
       </c>
       <c r="BA66" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="BB66" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="BC66" s="5">
         <v>0</v>
@@ -20066,13 +20066,13 @@
         <v>7313.28</v>
       </c>
       <c r="BE66" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="BF66" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="BG66" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BH66" s="4" t="s">
         <v>93</v>
@@ -20081,16 +20081,16 @@
         <v>52</v>
       </c>
       <c r="BJ66" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="BK66" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="BL66" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="BM66" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="BN66" s="5">
         <v>27000</v>
@@ -20113,7 +20113,7 @@
         <v>69</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>71</v>
@@ -20122,31 +20122,31 @@
         <v>330</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>79</v>
@@ -20194,13 +20194,13 @@
         <v>0</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AD67" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AE67" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AF67" s="2" t="s">
         <v>52</v>
@@ -20215,7 +20215,7 @@
         <v>52</v>
       </c>
       <c r="AJ67" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AK67" s="2" t="s">
         <v>260</v>
@@ -20233,7 +20233,7 @@
         <v>87</v>
       </c>
       <c r="AP67" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AQ67" s="3">
         <v>0</v>
@@ -20269,7 +20269,7 @@
         <v>91</v>
       </c>
       <c r="BB67" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="BC67" s="3">
         <v>0</v>
@@ -20278,10 +20278,10 @@
         <v>157.97</v>
       </c>
       <c r="BE67" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="BF67" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="BG67" s="2" t="s">
         <v>52</v>
@@ -20325,7 +20325,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>71</v>
@@ -20334,19 +20334,19 @@
         <v>330</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>2</v>
@@ -20355,10 +20355,10 @@
         <v>2</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>79</v>
@@ -20406,13 +20406,13 @@
         <v>0</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AD68" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AE68" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF68" s="2" t="s">
         <v>52</v>
@@ -20427,7 +20427,7 @@
         <v>52</v>
       </c>
       <c r="AJ68" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AK68" s="2" t="s">
         <v>260</v>
@@ -20436,16 +20436,16 @@
         <v>123</v>
       </c>
       <c r="AM68" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN68" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AO68" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AP68" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AQ68" s="3">
         <v>0</v>
@@ -20481,7 +20481,7 @@
         <v>91</v>
       </c>
       <c r="BB68" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="BC68" s="3">
         <v>0</v>
@@ -20490,13 +20490,13 @@
         <v>3549.6</v>
       </c>
       <c r="BE68" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="BF68" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="BG68" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="BH68" s="2" t="s">
         <v>93</v>
@@ -20537,7 +20537,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>71</v>
@@ -20546,31 +20546,31 @@
         <v>330</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>79</v>
@@ -20618,13 +20618,13 @@
         <v>0</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AD69" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AE69" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AF69" s="2" t="s">
         <v>52</v>
@@ -20639,10 +20639,10 @@
         <v>52</v>
       </c>
       <c r="AJ69" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AK69" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL69" s="2" t="s">
         <v>123</v>
@@ -20657,7 +20657,7 @@
         <v>87</v>
       </c>
       <c r="AP69" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AQ69" s="3">
         <v>0</v>
@@ -20693,7 +20693,7 @@
         <v>91</v>
       </c>
       <c r="BB69" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="BC69" s="3">
         <v>0</v>
@@ -20702,13 +20702,13 @@
         <v>993.04</v>
       </c>
       <c r="BE69" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="BF69" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="BG69" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="BH69" s="2" t="s">
         <v>93</v>
@@ -20749,7 +20749,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>71</v>
@@ -20758,19 +20758,19 @@
         <v>330</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>2</v>
@@ -20779,10 +20779,10 @@
         <v>2</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>79</v>
@@ -20833,16 +20833,16 @@
         <v>296</v>
       </c>
       <c r="AD70" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AE70" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AF70" s="2" t="s">
         <v>97</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AH70" s="2" t="s">
         <v>52</v>
@@ -20851,7 +20851,7 @@
         <v>52</v>
       </c>
       <c r="AJ70" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK70" s="2" t="s">
         <v>227</v>
@@ -20869,7 +20869,7 @@
         <v>87</v>
       </c>
       <c r="AP70" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AQ70" s="3">
         <v>0</v>
@@ -20905,7 +20905,7 @@
         <v>91</v>
       </c>
       <c r="BB70" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BC70" s="3">
         <v>0</v>
@@ -20914,10 +20914,10 @@
         <v>31924.26</v>
       </c>
       <c r="BE70" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BF70" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BG70" s="2" t="s">
         <v>296</v>
@@ -20961,7 +20961,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>71</v>
@@ -20970,25 +20970,25 @@
         <v>330</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>355</v>
@@ -21042,13 +21042,13 @@
         <v>0</v>
       </c>
       <c r="AC71" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="AE71" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF71" s="2" t="s">
         <v>52</v>
@@ -21063,7 +21063,7 @@
         <v>52</v>
       </c>
       <c r="AJ71" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AK71" s="2" t="s">
         <v>155</v>
@@ -21081,7 +21081,7 @@
         <v>87</v>
       </c>
       <c r="AP71" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AQ71" s="3">
         <v>0</v>
@@ -21117,7 +21117,7 @@
         <v>91</v>
       </c>
       <c r="BB71" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="BC71" s="3">
         <v>0</v>
@@ -21126,13 +21126,13 @@
         <v>370.04</v>
       </c>
       <c r="BE71" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="BF71" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="BG71" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="BH71" s="2" t="s">
         <v>93</v>
@@ -21173,7 +21173,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>71</v>
@@ -21182,25 +21182,25 @@
         <v>330</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>355</v>
@@ -21254,13 +21254,13 @@
         <v>0</v>
       </c>
       <c r="AC72" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="AE72" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="AF72" s="2" t="s">
         <v>52</v>
@@ -21275,7 +21275,7 @@
         <v>52</v>
       </c>
       <c r="AJ72" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AK72" s="2" t="s">
         <v>97</v>
@@ -21293,7 +21293,7 @@
         <v>87</v>
       </c>
       <c r="AP72" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AQ72" s="3">
         <v>0</v>
@@ -21329,7 +21329,7 @@
         <v>91</v>
       </c>
       <c r="BB72" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="BC72" s="3">
         <v>0</v>
@@ -21338,16 +21338,16 @@
         <v>575.32000000000005</v>
       </c>
       <c r="BE72" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BF72" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="BG72" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="BH72" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="BI72" s="2" t="s">
         <v>52</v>
@@ -21385,7 +21385,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>71</v>
@@ -21400,19 +21400,19 @@
         <v>74</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>78</v>
@@ -21436,7 +21436,7 @@
         <v>0</v>
       </c>
       <c r="S73" s="5">
-        <v>8500</v>
+        <v>4000</v>
       </c>
       <c r="T73" s="5">
         <v>0</v>
@@ -21472,7 +21472,7 @@
         <v>52</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AF73" s="4" t="s">
         <v>52</v>
@@ -21487,7 +21487,7 @@
         <v>52</v>
       </c>
       <c r="AJ73" s="4" t="s">
-        <v>776</v>
+        <v>610</v>
       </c>
       <c r="AK73" s="4" t="s">
         <v>777</v>
@@ -21505,7 +21505,7 @@
         <v>87</v>
       </c>
       <c r="AP73" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AQ73" s="5">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>161</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>74</v>
@@ -21678,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AD74" s="4" t="s">
         <v>52</v>
@@ -21768,7 +21768,7 @@
         <v>793</v>
       </c>
       <c r="BG74" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BH74" s="4" t="s">
         <v>794</v>
@@ -21890,7 +21890,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AD75" s="2" t="s">
         <v>800</v>
@@ -21911,7 +21911,7 @@
         <v>52</v>
       </c>
       <c r="AJ75" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AK75" s="2" t="s">
         <v>202</v>
@@ -21980,7 +21980,7 @@
         <v>93</v>
       </c>
       <c r="BG75" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="BH75" s="2" t="s">
         <v>93</v>
@@ -22030,7 +22030,7 @@
         <v>330</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>74</v>
@@ -22051,10 +22051,10 @@
         <v>807</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>79</v>
@@ -22242,7 +22242,7 @@
         <v>330</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>74</v>
@@ -22263,10 +22263,10 @@
         <v>819</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>79</v>
@@ -22454,7 +22454,7 @@
         <v>330</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>74</v>
@@ -22475,10 +22475,10 @@
         <v>830</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>79</v>
@@ -22550,7 +22550,7 @@
         <v>834</v>
       </c>
       <c r="AK78" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL78" s="2" t="s">
         <v>123</v>
@@ -22878,7 +22878,7 @@
         <v>330</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>74</v>
@@ -23090,7 +23090,7 @@
         <v>330</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>74</v>
@@ -23111,10 +23111,10 @@
         <v>2</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>79</v>
@@ -23302,7 +23302,7 @@
         <v>330</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>74</v>
@@ -23619,7 +23619,7 @@
         <v>85</v>
       </c>
       <c r="AN83" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO83" s="2" t="s">
         <v>87</v>
@@ -23726,7 +23726,7 @@
         <v>330</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>74</v>
@@ -23747,10 +23747,10 @@
         <v>904</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>79</v>
@@ -24043,7 +24043,7 @@
         <v>85</v>
       </c>
       <c r="AN85" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO85" s="2" t="s">
         <v>87</v>
@@ -24150,7 +24150,7 @@
         <v>330</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>74</v>
@@ -24171,10 +24171,10 @@
         <v>929</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>79</v>
@@ -24362,7 +24362,7 @@
         <v>330</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>74</v>
@@ -24383,10 +24383,10 @@
         <v>942</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>79</v>
@@ -24574,7 +24574,7 @@
         <v>330</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>74</v>
@@ -24595,10 +24595,10 @@
         <v>954</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>79</v>
@@ -24786,7 +24786,7 @@
         <v>330</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>74</v>
@@ -24807,10 +24807,10 @@
         <v>2</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>79</v>
@@ -24998,7 +24998,7 @@
         <v>330</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>74</v>
@@ -25019,10 +25019,10 @@
         <v>976</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>79</v>
@@ -25091,7 +25091,7 @@
         <v>52</v>
       </c>
       <c r="AJ90" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AK90" s="2" t="s">
         <v>777</v>
@@ -25210,7 +25210,7 @@
         <v>330</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>74</v>
@@ -25231,10 +25231,10 @@
         <v>2</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>79</v>
@@ -25422,7 +25422,7 @@
         <v>330</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>74</v>
@@ -25443,10 +25443,10 @@
         <v>2</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>79</v>
@@ -25634,7 +25634,7 @@
         <v>330</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>74</v>
@@ -25655,10 +25655,10 @@
         <v>2</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>79</v>
@@ -25846,7 +25846,7 @@
         <v>330</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>74</v>
@@ -25867,10 +25867,10 @@
         <v>1019</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>79</v>
@@ -26058,7 +26058,7 @@
         <v>330</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>74</v>
@@ -26079,10 +26079,10 @@
         <v>1029</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>79</v>
@@ -26270,7 +26270,7 @@
         <v>330</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>74</v>
@@ -26291,10 +26291,10 @@
         <v>1040</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>79</v>
@@ -26360,13 +26360,13 @@
         <v>97</v>
       </c>
       <c r="AI96" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AJ96" s="2" t="s">
         <v>1045</v>
       </c>
       <c r="AK96" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL96" s="2" t="s">
         <v>84</v>
@@ -26482,7 +26482,7 @@
         <v>330</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>74</v>
@@ -26503,10 +26503,10 @@
         <v>1053</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>79</v>
@@ -26575,7 +26575,7 @@
         <v>1058</v>
       </c>
       <c r="AJ97" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AK97" s="2" t="s">
         <v>133</v>
@@ -26694,7 +26694,7 @@
         <v>330</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>74</v>
@@ -26715,10 +26715,10 @@
         <v>1067</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>79</v>
@@ -26790,7 +26790,7 @@
         <v>1071</v>
       </c>
       <c r="AK98" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL98" s="2" t="s">
         <v>84</v>
@@ -26906,7 +26906,7 @@
         <v>330</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>74</v>
@@ -26927,10 +26927,10 @@
         <v>1078</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>79</v>
@@ -27139,10 +27139,10 @@
         <v>1091</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>79</v>
@@ -27330,7 +27330,7 @@
         <v>330</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>74</v>
@@ -27351,10 +27351,10 @@
         <v>2</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>79</v>
@@ -27542,7 +27542,7 @@
         <v>330</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>74</v>
@@ -27563,10 +27563,10 @@
         <v>2</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>79</v>
@@ -27754,7 +27754,7 @@
         <v>330</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>74</v>
@@ -27775,10 +27775,10 @@
         <v>1123</v>
       </c>
       <c r="L103" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>79</v>
@@ -27966,7 +27966,7 @@
         <v>330</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>74</v>
@@ -27987,10 +27987,10 @@
         <v>1134</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N104" s="4" t="s">
         <v>79</v>
@@ -28199,10 +28199,10 @@
         <v>1147</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>79</v>
@@ -28274,7 +28274,7 @@
         <v>1149</v>
       </c>
       <c r="AK105" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL105" s="2" t="s">
         <v>123</v>
@@ -28283,7 +28283,7 @@
         <v>85</v>
       </c>
       <c r="AN105" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO105" s="2" t="s">
         <v>87</v>
@@ -28411,10 +28411,10 @@
         <v>1159</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>79</v>
@@ -28698,7 +28698,7 @@
         <v>1179</v>
       </c>
       <c r="AK107" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL107" s="2" t="s">
         <v>84</v>
@@ -28835,10 +28835,10 @@
         <v>1187</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>79</v>
@@ -28910,7 +28910,7 @@
         <v>1190</v>
       </c>
       <c r="AK108" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL108" s="2" t="s">
         <v>84</v>
@@ -29026,7 +29026,7 @@
         <v>330</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>74</v>
@@ -29047,10 +29047,10 @@
         <v>1196</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>79</v>
@@ -29450,7 +29450,7 @@
         <v>330</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>74</v>
@@ -29471,10 +29471,10 @@
         <v>2</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>79</v>
@@ -29546,7 +29546,7 @@
         <v>869</v>
       </c>
       <c r="AK111" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL111" s="2" t="s">
         <v>84</v>
@@ -29662,7 +29662,7 @@
         <v>330</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>74</v>
@@ -29734,7 +29734,7 @@
         <v>0</v>
       </c>
       <c r="AC112" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AD112" s="2" t="s">
         <v>1229</v>
@@ -29755,7 +29755,7 @@
         <v>52</v>
       </c>
       <c r="AJ112" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AK112" s="2" t="s">
         <v>133</v>
@@ -29874,7 +29874,7 @@
         <v>330</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>74</v>
@@ -30086,7 +30086,7 @@
         <v>330</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>74</v>
@@ -30298,7 +30298,7 @@
         <v>330</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>74</v>
@@ -30510,7 +30510,7 @@
         <v>161</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>74</v>
@@ -30549,10 +30549,10 @@
         <v>30509.119999999999</v>
       </c>
       <c r="R116" s="5">
-        <v>26800</v>
+        <v>0</v>
       </c>
       <c r="S116" s="5">
-        <v>2699.12</v>
+        <v>29099.119999999999</v>
       </c>
       <c r="T116" s="5">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="BD116" s="5">
-        <v>350</v>
+        <v>32476.48</v>
       </c>
       <c r="BE116" s="4" t="s">
         <v>1281</v>
@@ -30722,7 +30722,7 @@
         <v>330</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>74</v>
@@ -30934,7 +30934,7 @@
         <v>330</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>97</v>
@@ -31146,7 +31146,7 @@
         <v>330</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>74</v>
@@ -31358,7 +31358,7 @@
         <v>330</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>74</v>
@@ -31570,7 +31570,7 @@
         <v>330</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>74</v>
@@ -31782,7 +31782,7 @@
         <v>330</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>74</v>
@@ -31803,10 +31803,10 @@
         <v>1340</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N122" s="4" t="s">
         <v>79</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="AC123" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AD123" s="2" t="s">
         <v>1318</v>
@@ -32156,7 +32156,7 @@
         <v>93</v>
       </c>
       <c r="BG123" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="BH123" s="2" t="s">
         <v>1354</v>
@@ -32206,7 +32206,7 @@
         <v>330</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>74</v>
@@ -32227,10 +32227,10 @@
         <v>1360</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>79</v>
@@ -32418,7 +32418,7 @@
         <v>330</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>74</v>
@@ -32630,7 +32630,7 @@
         <v>330</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>74</v>
@@ -32651,10 +32651,10 @@
         <v>1380</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>79</v>
@@ -32842,7 +32842,7 @@
         <v>330</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>74</v>
@@ -32863,10 +32863,10 @@
         <v>1387</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>79</v>
@@ -33054,7 +33054,7 @@
         <v>330</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>74</v>
@@ -33075,10 +33075,10 @@
         <v>2</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>79</v>
@@ -33266,7 +33266,7 @@
         <v>330</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>74</v>
@@ -33305,10 +33305,10 @@
         <v>400000</v>
       </c>
       <c r="R129" s="5">
-        <v>208000</v>
+        <v>172000</v>
       </c>
       <c r="S129" s="5">
-        <v>8000</v>
+        <v>20000</v>
       </c>
       <c r="T129" s="5">
         <v>0</v>
@@ -33574,7 +33574,7 @@
         <v>1416</v>
       </c>
       <c r="AK130" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL130" s="2" t="s">
         <v>1417</v>
@@ -33583,7 +33583,7 @@
         <v>1418</v>
       </c>
       <c r="AN130" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AO130" s="2" t="s">
         <v>87</v>
@@ -33690,7 +33690,7 @@
         <v>161</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>74</v>
@@ -34186,7 +34186,7 @@
         <v>0</v>
       </c>
       <c r="AC133" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AD133" s="2" t="s">
         <v>1441</v>
@@ -34326,7 +34326,7 @@
         <v>330</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>74</v>
@@ -34347,10 +34347,10 @@
         <v>1452</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>79</v>
@@ -34538,7 +34538,7 @@
         <v>330</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>74</v>
@@ -34559,10 +34559,10 @@
         <v>1464</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>79</v>
@@ -34631,7 +34631,7 @@
         <v>52</v>
       </c>
       <c r="AJ135" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AK135" s="2" t="s">
         <v>456</v>
@@ -34750,7 +34750,7 @@
         <v>330</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>74</v>
@@ -34846,7 +34846,7 @@
         <v>1480</v>
       </c>
       <c r="AK136" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL136" s="2" t="s">
         <v>123</v>
@@ -34962,7 +34962,7 @@
         <v>330</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>74</v>
@@ -35174,7 +35174,7 @@
         <v>330</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>74</v>
@@ -35246,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="AC138" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AD138" s="2" t="s">
         <v>1500</v>
@@ -35333,10 +35333,10 @@
         <v>93</v>
       </c>
       <c r="BF138" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="BG138" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="BH138" s="2" t="s">
         <v>1504</v>
@@ -35386,7 +35386,7 @@
         <v>330</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>74</v>
@@ -35407,10 +35407,10 @@
         <v>1510</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>79</v>
@@ -35482,7 +35482,7 @@
         <v>1513</v>
       </c>
       <c r="AK139" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL139" s="2" t="s">
         <v>123</v>
@@ -35598,7 +35598,7 @@
         <v>330</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>74</v>
@@ -35619,10 +35619,10 @@
         <v>1520</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>79</v>
@@ -35676,7 +35676,7 @@
         <v>988</v>
       </c>
       <c r="AE140" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF140" s="2" t="s">
         <v>52</v>
@@ -35810,7 +35810,7 @@
         <v>330</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>74</v>
@@ -35831,10 +35831,10 @@
         <v>1529</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>79</v>
@@ -35903,7 +35903,7 @@
         <v>52</v>
       </c>
       <c r="AJ141" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="AK141" s="2" t="s">
         <v>419</v>
@@ -36022,7 +36022,7 @@
         <v>330</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>74</v>
@@ -36330,7 +36330,7 @@
         <v>1550</v>
       </c>
       <c r="AK143" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL143" s="2" t="s">
         <v>123</v>
@@ -36433,214 +36433,214 @@
       </c>
     </row>
     <row r="144" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C144" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D144" s="4" t="s">
+      <c r="D144" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="H144" s="4" t="s">
+      <c r="H144" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="I144" s="4" t="s">
+      <c r="I144" s="2" t="s">
         <v>1558</v>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L144" s="4" t="s">
+      <c r="J144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L144" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M144" s="4" t="s">
+      <c r="M144" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N144" s="4" t="s">
+      <c r="N144" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O144" s="4" t="s">
+      <c r="O144" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P144" s="5">
+      <c r="P144" s="3">
         <v>45000</v>
       </c>
-      <c r="Q144" s="5">
+      <c r="Q144" s="3">
         <v>45000</v>
       </c>
-      <c r="R144" s="5">
-        <v>9000</v>
-      </c>
-      <c r="S144" s="5">
-        <v>450</v>
-      </c>
-      <c r="T144" s="5">
-        <v>0</v>
-      </c>
-      <c r="U144" s="5">
-        <v>0</v>
-      </c>
-      <c r="V144" s="5">
-        <v>0</v>
-      </c>
-      <c r="W144" s="5">
-        <v>0</v>
-      </c>
-      <c r="X144" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y144" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z144" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA144" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB144" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC144" s="4" t="s">
+      <c r="R144" s="3">
+        <v>0</v>
+      </c>
+      <c r="S144" s="3">
+        <v>0</v>
+      </c>
+      <c r="T144" s="3">
+        <v>0</v>
+      </c>
+      <c r="U144" s="3">
+        <v>0</v>
+      </c>
+      <c r="V144" s="3">
+        <v>0</v>
+      </c>
+      <c r="W144" s="3">
+        <v>0</v>
+      </c>
+      <c r="X144" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="AD144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE144" s="4" t="s">
+      <c r="AD144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE144" s="2" t="s">
         <v>1559</v>
       </c>
-      <c r="AF144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ144" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK144" s="4" t="s">
+      <c r="AF144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ144" s="2" t="s">
+        <v>1560</v>
+      </c>
+      <c r="AK144" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="AL144" s="4" t="s">
+      <c r="AL144" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AM144" s="4" t="s">
-        <v>1560</v>
-      </c>
-      <c r="AN144" s="4" t="s">
+      <c r="AM144" s="2" t="s">
+        <v>1561</v>
+      </c>
+      <c r="AN144" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AO144" s="4" t="s">
+      <c r="AO144" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP144" s="4" t="s">
+      <c r="AP144" s="2" t="s">
         <v>1556</v>
       </c>
-      <c r="AQ144" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS144" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU144" s="4" t="s">
+      <c r="AQ144" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS144" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU144" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AV144" s="4" t="s">
+      <c r="AV144" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AW144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY144" s="4" t="s">
+      <c r="AW144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX144" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY144" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AZ144" s="4" t="s">
+      <c r="AZ144" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA144" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="BB144" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BC144" s="5">
+      <c r="BA144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB144" s="2" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BC144" s="3">
         <v>1</v>
       </c>
-      <c r="BD144" s="5">
+      <c r="BD144" s="3">
         <v>750</v>
       </c>
-      <c r="BE144" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="BF144" s="4" t="s">
+      <c r="BE144" s="2" t="s">
         <v>1562</v>
       </c>
-      <c r="BG144" s="4" t="s">
+      <c r="BF144" s="2" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BG144" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BH144" s="4" t="s">
-        <v>1563</v>
-      </c>
-      <c r="BI144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN144" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO144" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP144" s="4" t="s">
+      <c r="BH144" s="2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BI144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN144" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO144" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP144" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BQ144" s="4" t="s">
+      <c r="BQ144" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BR144" s="4" t="s">
+      <c r="BR144" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -36649,7 +36649,7 @@
         <v>69</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>71</v>
@@ -36658,31 +36658,31 @@
         <v>330</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>79</v>
@@ -36736,7 +36736,7 @@
         <v>1297</v>
       </c>
       <c r="AE145" s="2" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="AF145" s="2" t="s">
         <v>52</v>
@@ -36769,7 +36769,7 @@
         <v>87</v>
       </c>
       <c r="AP145" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="AQ145" s="3">
         <v>0</v>
@@ -36805,7 +36805,7 @@
         <v>91</v>
       </c>
       <c r="BB145" s="2" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="BC145" s="3">
         <v>0</v>
@@ -36823,7 +36823,7 @@
         <v>52</v>
       </c>
       <c r="BH145" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="BI145" s="2" t="s">
         <v>52</v>
@@ -36861,7 +36861,7 @@
         <v>69</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>71</v>
@@ -36870,31 +36870,31 @@
         <v>330</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>79</v>
@@ -36948,7 +36948,7 @@
         <v>1113</v>
       </c>
       <c r="AE146" s="2" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="AF146" s="2" t="s">
         <v>52</v>
@@ -36972,7 +36972,7 @@
         <v>84</v>
       </c>
       <c r="AM146" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AN146" s="2" t="s">
         <v>86</v>
@@ -36981,7 +36981,7 @@
         <v>87</v>
       </c>
       <c r="AP146" s="2" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="AQ146" s="3">
         <v>0</v>
@@ -37017,7 +37017,7 @@
         <v>91</v>
       </c>
       <c r="BB146" s="2" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="BC146" s="3">
         <v>0</v>
@@ -37035,7 +37035,7 @@
         <v>52</v>
       </c>
       <c r="BH146" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="BI146" s="2" t="s">
         <v>52</v>
@@ -37073,7 +37073,7 @@
         <v>69</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>71</v>
@@ -37082,25 +37082,25 @@
         <v>330</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="L147" s="4" t="s">
         <v>1174</v>
@@ -37124,7 +37124,7 @@
         <v>0</v>
       </c>
       <c r="S147" s="5">
-        <v>1507.71</v>
+        <v>817.71</v>
       </c>
       <c r="T147" s="5">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="AC147" s="4" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="AD147" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE147" s="4" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="AF147" s="4" t="s">
         <v>52</v>
@@ -37175,7 +37175,7 @@
         <v>52</v>
       </c>
       <c r="AJ147" s="4" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="AK147" s="4" t="s">
         <v>111</v>
@@ -37184,7 +37184,7 @@
         <v>123</v>
       </c>
       <c r="AM147" s="4" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="AN147" s="4" t="s">
         <v>195</v>
@@ -37193,7 +37193,7 @@
         <v>87</v>
       </c>
       <c r="AP147" s="4" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="AQ147" s="5">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>90</v>
       </c>
       <c r="BA147" s="4" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="BB147" s="4" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="BC147" s="5">
         <v>0</v>
@@ -37238,16 +37238,16 @@
         <v>278.13</v>
       </c>
       <c r="BE147" s="4" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="BF147" s="4" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="BG147" s="4" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="BH147" s="4" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="BI147" s="4" t="s">
         <v>52</v>
@@ -37285,7 +37285,7 @@
         <v>69</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>71</v>
@@ -37294,25 +37294,25 @@
         <v>330</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="L148" s="2" t="s">
         <v>1174</v>
@@ -37366,13 +37366,13 @@
         <v>0</v>
       </c>
       <c r="AC148" s="2" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="AE148" s="2" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="AF148" s="2" t="s">
         <v>52</v>
@@ -37387,10 +37387,10 @@
         <v>52</v>
       </c>
       <c r="AJ148" s="2" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="AK148" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL148" s="2" t="s">
         <v>123</v>
@@ -37399,13 +37399,13 @@
         <v>85</v>
       </c>
       <c r="AN148" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="AO148" s="2" t="s">
         <v>87</v>
       </c>
       <c r="AP148" s="2" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="AQ148" s="3">
         <v>0</v>
@@ -37441,7 +37441,7 @@
         <v>91</v>
       </c>
       <c r="BB148" s="2" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="BC148" s="3">
         <v>0</v>
@@ -37459,7 +37459,7 @@
         <v>52</v>
       </c>
       <c r="BH148" s="2" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="BI148" s="2" t="s">
         <v>52</v>
@@ -37497,7 +37497,7 @@
         <v>69</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>71</v>
@@ -37506,31 +37506,31 @@
         <v>330</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>79</v>
@@ -37578,13 +37578,13 @@
         <v>0</v>
       </c>
       <c r="AC149" s="2" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="AD149" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="AE149" s="2" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="AF149" s="2" t="s">
         <v>52</v>
@@ -37599,7 +37599,7 @@
         <v>52</v>
       </c>
       <c r="AJ149" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="AK149" s="2" t="s">
         <v>372</v>
@@ -37617,7 +37617,7 @@
         <v>87</v>
       </c>
       <c r="AP149" s="2" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="AQ149" s="3">
         <v>0</v>
@@ -37653,7 +37653,7 @@
         <v>91</v>
       </c>
       <c r="BB149" s="2" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="BC149" s="3">
         <v>0</v>
@@ -37671,7 +37671,7 @@
         <v>52</v>
       </c>
       <c r="BH149" s="2" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="BI149" s="2" t="s">
         <v>52</v>
@@ -37706,10 +37706,10 @@
     </row>
     <row r="150" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>71</v>
@@ -37718,25 +37718,25 @@
         <v>161</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="L150" s="2" t="s">
         <v>78</v>
@@ -37793,10 +37793,10 @@
         <v>1199</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="AE150" s="2" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="AF150" s="2" t="s">
         <v>52</v>
@@ -37811,10 +37811,10 @@
         <v>52</v>
       </c>
       <c r="AJ150" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AK150" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL150" s="2" t="s">
         <v>84</v>
@@ -37829,7 +37829,7 @@
         <v>87</v>
       </c>
       <c r="AP150" s="2" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="AQ150" s="3">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>91</v>
       </c>
       <c r="BB150" s="2" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="BC150" s="3">
         <v>0</v>
@@ -37917,214 +37917,214 @@
       </c>
     </row>
     <row r="151" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B151" s="4" t="s">
+      <c r="A151" s="2" t="s">
         <v>1628</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="B151" s="2" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D151" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F151" s="4" t="s">
+      <c r="E151" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G151" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H151" s="4" t="s">
+      <c r="G151" s="2" t="s">
         <v>1630</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="H151" s="2" t="s">
         <v>1631</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="I151" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="K151" s="4" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L151" s="4" t="s">
+      <c r="J151" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="L151" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M151" s="4" t="s">
+      <c r="M151" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N151" s="4" t="s">
+      <c r="N151" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O151" s="4" t="s">
+      <c r="O151" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P151" s="5">
+      <c r="P151" s="3">
         <v>6900</v>
       </c>
-      <c r="Q151" s="5">
+      <c r="Q151" s="3">
         <v>6300</v>
       </c>
-      <c r="R151" s="5">
-        <v>0</v>
-      </c>
-      <c r="S151" s="5">
-        <v>3155</v>
-      </c>
-      <c r="T151" s="5">
-        <v>0</v>
-      </c>
-      <c r="U151" s="5">
-        <v>0</v>
-      </c>
-      <c r="V151" s="5">
-        <v>0</v>
-      </c>
-      <c r="W151" s="5">
-        <v>0</v>
-      </c>
-      <c r="X151" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y151" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z151" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA151" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB151" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC151" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="AD151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE151" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="AF151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ151" s="4" t="s">
-        <v>1623</v>
-      </c>
-      <c r="AK151" s="4" t="s">
+      <c r="R151" s="3">
+        <v>0</v>
+      </c>
+      <c r="S151" s="3">
+        <v>0</v>
+      </c>
+      <c r="T151" s="3">
+        <v>0</v>
+      </c>
+      <c r="U151" s="3">
+        <v>0</v>
+      </c>
+      <c r="V151" s="3">
+        <v>0</v>
+      </c>
+      <c r="W151" s="3">
+        <v>0</v>
+      </c>
+      <c r="X151" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AD151" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AE151" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="AF151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ151" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="AK151" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AL151" s="4" t="s">
+      <c r="AL151" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM151" s="4" t="s">
+      <c r="AM151" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AN151" s="4" t="s">
+      <c r="AN151" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO151" s="4" t="s">
+      <c r="AO151" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP151" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="AQ151" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS151" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU151" s="4" t="s">
+      <c r="AP151" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="AQ151" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS151" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU151" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AV151" s="4" t="s">
+      <c r="AV151" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AW151" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX151" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY151" s="4" t="s">
+      <c r="AW151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX151" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY151" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AZ151" s="4" t="s">
+      <c r="AZ151" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA151" s="4" t="s">
-        <v>1634</v>
-      </c>
-      <c r="BB151" s="4" t="s">
-        <v>1635</v>
-      </c>
-      <c r="BC151" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD151" s="5">
+      <c r="BA151" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="BB151" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="BC151" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD151" s="3">
         <v>203.1</v>
       </c>
-      <c r="BE151" s="4" t="s">
+      <c r="BE151" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BF151" s="4" t="s">
-        <v>1636</v>
-      </c>
-      <c r="BG151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH151" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="BI151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN151" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO151" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP151" s="4" t="s">
+      <c r="BF151" s="2" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BG151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH151" s="2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BI151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN151" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO151" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP151" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BQ151" s="4" t="s">
+      <c r="BQ151" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BR151" s="4" t="s">
+      <c r="BR151" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -38142,19 +38142,19 @@
         <v>72</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>2</v>
@@ -38184,7 +38184,7 @@
         <v>0</v>
       </c>
       <c r="S152" s="5">
-        <v>13632.82</v>
+        <v>12632.82</v>
       </c>
       <c r="T152" s="5">
         <v>0</v>
@@ -38214,13 +38214,13 @@
         <v>0</v>
       </c>
       <c r="AC152" s="4" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="AD152" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE152" s="4" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
       <c r="AF152" s="4" t="s">
         <v>52</v>
@@ -38235,10 +38235,10 @@
         <v>52</v>
       </c>
       <c r="AJ152" s="4" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="AK152" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AL152" s="4" t="s">
         <v>84</v>
@@ -38253,7 +38253,7 @@
         <v>87</v>
       </c>
       <c r="AP152" s="4" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="AQ152" s="5">
         <v>0</v>
@@ -38286,10 +38286,10 @@
         <v>90</v>
       </c>
       <c r="BA152" s="4" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="BB152" s="4" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="BC152" s="5">
         <v>0</v>
@@ -38307,7 +38307,7 @@
         <v>52</v>
       </c>
       <c r="BH152" s="4" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="BI152" s="4" t="s">
         <v>52</v>
@@ -38345,7 +38345,7 @@
         <v>69</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>71</v>
@@ -38354,31 +38354,31 @@
         <v>330</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>79</v>
@@ -38429,10 +38429,10 @@
         <v>1161</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="AE153" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="AF153" s="2" t="s">
         <v>52</v>
@@ -38447,7 +38447,7 @@
         <v>52</v>
       </c>
       <c r="AJ153" s="2" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="AK153" s="2" t="s">
         <v>1000</v>
@@ -38465,7 +38465,7 @@
         <v>87</v>
       </c>
       <c r="AP153" s="2" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="AQ153" s="3">
         <v>0</v>
@@ -38501,7 +38501,7 @@
         <v>91</v>
       </c>
       <c r="BB153" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="BC153" s="3">
         <v>0</v>
@@ -38513,13 +38513,13 @@
         <v>93</v>
       </c>
       <c r="BF153" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="BG153" s="2" t="s">
         <v>52</v>
       </c>
       <c r="BH153" s="2" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="BI153" s="2" t="s">
         <v>52</v>
@@ -38557,7 +38557,7 @@
         <v>1335</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>71</v>
@@ -38566,19 +38566,19 @@
         <v>161</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>2</v>
@@ -38638,13 +38638,13 @@
         <v>0</v>
       </c>
       <c r="AC154" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="AD154" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="AE154" s="2" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="AF154" s="2" t="s">
         <v>52</v>
@@ -38677,7 +38677,7 @@
         <v>87</v>
       </c>
       <c r="AP154" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="AQ154" s="3">
         <v>0</v>
@@ -38713,7 +38713,7 @@
         <v>91</v>
       </c>
       <c r="BB154" s="2" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="BC154" s="3">
         <v>0</v>
@@ -38731,7 +38731,7 @@
         <v>52</v>
       </c>
       <c r="BH154" s="2" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="BI154" s="2" t="s">
         <v>52</v>
@@ -38769,7 +38769,7 @@
         <v>69</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>71</v>
@@ -38778,19 +38778,19 @@
         <v>161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="J155" s="2" t="s">
         <v>2</v>
@@ -38808,7 +38808,7 @@
         <v>79</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="P155" s="3">
         <v>2275</v>
@@ -38853,10 +38853,10 @@
         <v>325</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AE155" s="2" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="AF155" s="2" t="s">
         <v>52</v>
@@ -38871,7 +38871,7 @@
         <v>52</v>
       </c>
       <c r="AJ155" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="AK155" s="2" t="s">
         <v>342</v>
@@ -38889,7 +38889,7 @@
         <v>87</v>
       </c>
       <c r="AP155" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="AQ155" s="3">
         <v>0</v>
@@ -38925,7 +38925,7 @@
         <v>91</v>
       </c>
       <c r="BB155" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="BC155" s="3">
         <v>0</v>
@@ -38981,7 +38981,7 @@
         <v>69</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>71</v>
@@ -38990,19 +38990,19 @@
         <v>161</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="J156" s="2" t="s">
         <v>2</v>
@@ -39065,10 +39065,10 @@
         <v>325</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AE156" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="AF156" s="2" t="s">
         <v>52</v>
@@ -39083,7 +39083,7 @@
         <v>52</v>
       </c>
       <c r="AJ156" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AK156" s="2" t="s">
         <v>342</v>
@@ -39092,7 +39092,7 @@
         <v>84</v>
       </c>
       <c r="AM156" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="AN156" s="2" t="s">
         <v>86</v>
@@ -39101,7 +39101,7 @@
         <v>87</v>
       </c>
       <c r="AP156" s="2" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="AQ156" s="3">
         <v>0</v>
@@ -39134,10 +39134,10 @@
         <v>90</v>
       </c>
       <c r="BA156" s="2" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="BB156" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="BC156" s="3">
         <v>0</v>
@@ -39190,10 +39190,10 @@
     </row>
     <row r="157" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>71</v>
@@ -39202,19 +39202,19 @@
         <v>330</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="J157" s="2" t="s">
         <v>2</v>
@@ -39274,13 +39274,13 @@
         <v>0</v>
       </c>
       <c r="AC157" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="AE157" s="2" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="AF157" s="2" t="s">
         <v>52</v>
@@ -39313,7 +39313,7 @@
         <v>87</v>
       </c>
       <c r="AP157" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="AQ157" s="3">
         <v>0</v>
@@ -39349,7 +39349,7 @@
         <v>91</v>
       </c>
       <c r="BB157" s="2" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="BC157" s="3">
         <v>0</v>
@@ -39367,7 +39367,7 @@
         <v>52</v>
       </c>
       <c r="BH157" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="BI157" s="2" t="s">
         <v>52</v>
@@ -39401,214 +39401,214 @@
       </c>
     </row>
     <row r="158" spans="1:70" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D158" s="4" t="s">
+      <c r="C158" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E158" s="4" t="s">
+      <c r="E158" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="F158" s="4" t="s">
+      <c r="F158" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G158" s="4" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H158" s="4" t="s">
-        <v>1694</v>
-      </c>
-      <c r="I158" s="4" t="s">
+      <c r="G158" s="2" t="s">
         <v>1695</v>
       </c>
-      <c r="J158" s="4" t="s">
+      <c r="H158" s="2" t="s">
         <v>1696</v>
       </c>
-      <c r="K158" s="4" t="s">
-        <v>1696</v>
-      </c>
-      <c r="L158" s="4" t="s">
-        <v>1174</v>
-      </c>
-      <c r="M158" s="4" t="s">
+      <c r="I158" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>1699</v>
+      </c>
+      <c r="M158" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N158" s="4" t="s">
+      <c r="N158" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O158" s="4" t="s">
+      <c r="O158" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P158" s="5">
+      <c r="P158" s="3">
         <v>13000</v>
       </c>
-      <c r="Q158" s="5">
-        <v>13000</v>
-      </c>
-      <c r="R158" s="5">
-        <v>9332.2199999999993</v>
-      </c>
-      <c r="S158" s="5">
-        <v>1867.78</v>
-      </c>
-      <c r="T158" s="5">
-        <v>0</v>
-      </c>
-      <c r="U158" s="5">
-        <v>114.14</v>
-      </c>
-      <c r="V158" s="5">
-        <v>0</v>
-      </c>
-      <c r="W158" s="5">
-        <v>0</v>
-      </c>
-      <c r="X158" s="5">
-        <v>162.5</v>
-      </c>
-      <c r="Y158" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z158" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA158" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB158" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC158" s="4" t="s">
-        <v>1697</v>
-      </c>
-      <c r="AD158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE158" s="4" t="s">
-        <v>1698</v>
-      </c>
-      <c r="AF158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG158" s="4" t="s">
-        <v>1699</v>
-      </c>
-      <c r="AH158" s="4" t="s">
+      <c r="Q158" s="3">
+        <v>10813.14</v>
+      </c>
+      <c r="R158" s="3">
+        <v>10142.92</v>
+      </c>
+      <c r="S158" s="3">
+        <v>0</v>
+      </c>
+      <c r="T158" s="3">
+        <v>60.84</v>
+      </c>
+      <c r="U158" s="3">
+        <v>0</v>
+      </c>
+      <c r="V158" s="3">
+        <v>0</v>
+      </c>
+      <c r="W158" s="3">
+        <v>0</v>
+      </c>
+      <c r="X158" s="3">
+        <v>101.43</v>
+      </c>
+      <c r="Y158" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="AD158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE158" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AF158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG158" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="AH158" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AI158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ158" s="4" t="s">
-        <v>1700</v>
-      </c>
-      <c r="AK158" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AL158" s="4" t="s">
+      <c r="AI158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ158" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="AK158" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL158" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AM158" s="4" t="s">
+      <c r="AM158" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AN158" s="4" t="s">
+      <c r="AN158" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AO158" s="4" t="s">
+      <c r="AO158" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="AP158" s="4" t="s">
-        <v>1693</v>
-      </c>
-      <c r="AQ158" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS158" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU158" s="4" t="s">
+      <c r="AP158" s="2" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AQ158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS158" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU158" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AV158" s="4" t="s">
+      <c r="AV158" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AW158" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX158" s="4" t="s">
+      <c r="AW158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX158" s="2" t="s">
         <v>1406</v>
       </c>
-      <c r="AY158" s="4" t="s">
+      <c r="AY158" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="AZ158" s="4" t="s">
+      <c r="AZ158" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BA158" s="4" t="s">
-        <v>1701</v>
-      </c>
-      <c r="BB158" s="4" t="s">
-        <v>1702</v>
-      </c>
-      <c r="BC158" s="5">
-        <v>0</v>
-      </c>
-      <c r="BD158" s="5">
-        <v>397.05</v>
-      </c>
-      <c r="BE158" s="4" t="s">
+      <c r="BA158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BB158" s="2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="BC158" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD158" s="3">
+        <v>329.32</v>
+      </c>
+      <c r="BE158" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BF158" s="4" t="s">
+      <c r="BF158" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="BG158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BH158" s="4" t="s">
+      <c r="BG158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BH158" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BI158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BL158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BN158" s="5">
-        <v>0</v>
-      </c>
-      <c r="BO158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="BP158" s="4" t="s">
+      <c r="BI158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BL158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN158" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO158" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BP158" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="BQ158" s="4" t="s">
+      <c r="BQ158" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BR158" s="4" t="s">
+      <c r="BR158" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -39617,7 +39617,7 @@
         <v>69</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>71</v>
@@ -39632,19 +39632,19 @@
         <v>74</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="K159" s="2" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>1174</v>
@@ -39698,13 +39698,13 @@
         <v>0</v>
       </c>
       <c r="AC159" s="2" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="AE159" s="2" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="AF159" s="2" t="s">
         <v>52</v>
@@ -39719,7 +39719,7 @@
         <v>52</v>
       </c>
       <c r="AJ159" s="2" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="AK159" s="2" t="s">
         <v>194</v>
@@ -39737,7 +39737,7 @@
         <v>87</v>
       </c>
       <c r="AP159" s="2" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="AQ159" s="3">
         <v>0</v>
@@ -39773,7 +39773,7 @@
         <v>91</v>
       </c>
       <c r="BB159" s="2" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="BC159" s="3">
         <v>0</v>
@@ -39829,7 +39829,7 @@
         <v>69</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>71</v>
@@ -39838,25 +39838,25 @@
         <v>330</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>74</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>78</v>
@@ -39877,10 +39877,10 @@
         <v>15100</v>
       </c>
       <c r="R160" s="5">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="S160" s="5">
-        <v>5150.6000000000004</v>
+        <v>5250.6</v>
       </c>
       <c r="T160" s="5">
         <v>0</v>
@@ -39910,13 +39910,13 @@
         <v>0</v>
       </c>
       <c r="AC160" s="4" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="AD160" s="4" t="s">
         <v>52</v>
       </c>
       <c r="AE160" s="4" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="AF160" s="4" t="s">
         <v>52</v>
@@ -39931,10 +39931,10 @@
         <v>52</v>
       </c>
       <c r="AJ160" s="4" t="s">
-        <v>1719</v>
+        <v>690</v>
       </c>
       <c r="AK160" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL160" s="4" t="s">
         <v>84</v>
@@ -39949,7 +39949,7 @@
         <v>87</v>
       </c>
       <c r="AP160" s="4" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="AQ160" s="5">
         <v>0</v>
@@ -39991,7 +39991,7 @@
         <v>0</v>
       </c>
       <c r="BD160" s="5">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="BE160" s="4" t="s">
         <v>93</v>
@@ -40000,7 +40000,7 @@
         <v>1722</v>
       </c>
       <c r="BG160" s="4" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="BH160" s="4" t="s">
         <v>1723</v>
@@ -40050,7 +40050,7 @@
         <v>161</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>74</v>
@@ -40089,10 +40089,10 @@
         <v>7000</v>
       </c>
       <c r="R161" s="5">
-        <v>3350</v>
+        <v>670</v>
       </c>
       <c r="S161" s="5">
-        <v>1932</v>
+        <v>1310</v>
       </c>
       <c r="T161" s="5">
         <v>0</v>
@@ -40143,7 +40143,7 @@
         <v>52</v>
       </c>
       <c r="AJ161" s="4" t="s">
-        <v>1719</v>
+        <v>690</v>
       </c>
       <c r="AK161" s="4" t="s">
         <v>145</v>
@@ -40334,7 +40334,7 @@
         <v>0</v>
       </c>
       <c r="AC162" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AD162" s="2" t="s">
         <v>52</v>
@@ -40355,7 +40355,7 @@
         <v>52</v>
       </c>
       <c r="AJ162" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AK162" s="2" t="s">
         <v>83</v>
@@ -40367,7 +40367,7 @@
         <v>112</v>
       </c>
       <c r="AN162" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO162" s="2" t="s">
         <v>87</v>
@@ -40424,7 +40424,7 @@
         <v>93</v>
       </c>
       <c r="BG162" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="BH162" s="2" t="s">
         <v>1741</v>
